--- a/data/Employees.xlsx
+++ b/data/Employees.xlsx
@@ -24,15 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="80">
   <si>
     <t>frn_adminid</t>
   </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>SamOpinion</t>
   </si>
   <si>
     <t>NoTravel</t>
@@ -200,6 +197,9 @@
     <t>NoSamHater</t>
   </si>
   <si>
+    <t>SamOpinion</t>
+  </si>
+  <si>
     <t>LightSamHater</t>
   </si>
   <si>
@@ -210,6 +210,60 @@
   </si>
   <si>
     <t>MaximumSamHater</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Accounts</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Xsmall</t>
+  </si>
+  <si>
+    <t>Tshirt</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>Xlarge</t>
+  </si>
+  <si>
+    <t>Xxlarge</t>
+  </si>
+  <si>
+    <t>BizDev</t>
   </si>
 </sst>
 </file>
@@ -527,155 +581,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ88"/>
+  <dimension ref="A1:BN99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U67" sqref="U67"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection sqref="A1:BN99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
       <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
       <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>19</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" t="s">
-        <v>21</v>
-      </c>
       <c r="R1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>24</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>26</v>
       </c>
-      <c r="V1" t="s">
-        <v>27</v>
-      </c>
       <c r="W1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" t="s">
         <v>29</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" t="s">
-        <v>33</v>
-      </c>
       <c r="AB1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" t="s">
-        <v>39</v>
-      </c>
       <c r="AG1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH1" t="s">
         <v>41</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>42</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>43</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>44</v>
       </c>
-      <c r="AK1" t="s">
-        <v>45</v>
-      </c>
       <c r="AL1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM1" t="s">
         <v>47</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>48</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>49</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>50</v>
       </c>
-      <c r="AP1" t="s">
-        <v>51</v>
-      </c>
       <c r="AQ1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR1" t="s">
         <v>53</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>54</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>55</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>56</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>57</v>
       </c>
       <c r="AV1" t="s">
         <v>58</v>
@@ -689,166 +743,253 @@
       <c r="AY1" t="s">
         <v>61</v>
       </c>
+      <c r="AZ1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AB2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AF2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AG2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AI2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AJ2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AK2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AP2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AQ2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AR2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AS2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AT2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AU2" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="AV2" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="AW2" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="AX2" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="AY2" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="AZ2" t="s">
-        <v>2</v>
+        <v>63</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>241</v>
       </c>
@@ -1003,10 +1144,52 @@
         <v>0</v>
       </c>
       <c r="AZ3">
+        <v>1</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>1</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>1</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>144</v>
       </c>
@@ -1163,8 +1346,50 @@
       <c r="AZ4">
         <v>0</v>
       </c>
+      <c r="BA4">
+        <v>1</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>1</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>1</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>46</v>
       </c>
@@ -1319,10 +1544,52 @@
         <v>1</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>1</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>162</v>
       </c>
@@ -1477,10 +1744,52 @@
         <v>0</v>
       </c>
       <c r="AZ6">
+        <v>1</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>1</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>209</v>
       </c>
@@ -1635,10 +1944,52 @@
         <v>0</v>
       </c>
       <c r="AZ7">
+        <v>1</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>1</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>258</v>
       </c>
@@ -1793,10 +2144,52 @@
         <v>0</v>
       </c>
       <c r="AZ8">
+        <v>1</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>1</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>1</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1953,8 +2346,50 @@
       <c r="AZ9">
         <v>0</v>
       </c>
+      <c r="BA9">
+        <v>1</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>1</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>59</v>
       </c>
@@ -2111,8 +2546,50 @@
       <c r="AZ10">
         <v>0</v>
       </c>
+      <c r="BA10">
+        <v>1</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>1</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>1</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>245</v>
       </c>
@@ -2267,10 +2744,52 @@
         <v>0</v>
       </c>
       <c r="AZ11">
+        <v>1</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>1</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>1</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>161</v>
       </c>
@@ -2427,8 +2946,50 @@
       <c r="AZ12">
         <v>0</v>
       </c>
+      <c r="BA12">
+        <v>1</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>1</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>1</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>87</v>
       </c>
@@ -2583,10 +3144,52 @@
         <v>1</v>
       </c>
       <c r="AZ13">
+        <v>1</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>1</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>1</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>105</v>
       </c>
@@ -2741,10 +3344,52 @@
         <v>0</v>
       </c>
       <c r="AZ14">
+        <v>1</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>1</v>
+      </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
+      <c r="BJ14">
+        <v>0</v>
+      </c>
+      <c r="BK14">
+        <v>0</v>
+      </c>
+      <c r="BL14">
+        <v>1</v>
+      </c>
+      <c r="BM14">
+        <v>0</v>
+      </c>
+      <c r="BN14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>296</v>
       </c>
@@ -2899,10 +3544,52 @@
         <v>0</v>
       </c>
       <c r="AZ15">
+        <v>1</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>1</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15">
+        <v>0</v>
+      </c>
+      <c r="BJ15">
+        <v>0</v>
+      </c>
+      <c r="BK15">
+        <v>1</v>
+      </c>
+      <c r="BL15">
+        <v>0</v>
+      </c>
+      <c r="BM15">
+        <v>0</v>
+      </c>
+      <c r="BN15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>58</v>
       </c>
@@ -3057,10 +3744,52 @@
         <v>0</v>
       </c>
       <c r="AZ16">
+        <v>1</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>1</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>0</v>
+      </c>
+      <c r="BK16">
+        <v>0</v>
+      </c>
+      <c r="BL16">
+        <v>1</v>
+      </c>
+      <c r="BM16">
+        <v>0</v>
+      </c>
+      <c r="BN16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>146</v>
       </c>
@@ -3215,10 +3944,52 @@
         <v>1</v>
       </c>
       <c r="AZ17">
+        <v>1</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>1</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17">
+        <v>0</v>
+      </c>
+      <c r="BJ17">
+        <v>0</v>
+      </c>
+      <c r="BK17">
+        <v>0</v>
+      </c>
+      <c r="BL17">
+        <v>1</v>
+      </c>
+      <c r="BM17">
+        <v>0</v>
+      </c>
+      <c r="BN17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>219</v>
       </c>
@@ -3373,10 +4144,52 @@
         <v>0</v>
       </c>
       <c r="AZ18">
+        <v>1</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>1</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>0</v>
+      </c>
+      <c r="BI18">
+        <v>0</v>
+      </c>
+      <c r="BJ18">
+        <v>1</v>
+      </c>
+      <c r="BK18">
+        <v>0</v>
+      </c>
+      <c r="BL18">
+        <v>0</v>
+      </c>
+      <c r="BM18">
+        <v>0</v>
+      </c>
+      <c r="BN18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>299</v>
       </c>
@@ -3531,10 +4344,52 @@
         <v>0</v>
       </c>
       <c r="AZ19">
+        <v>1</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>1</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19">
+        <v>0</v>
+      </c>
+      <c r="BJ19">
+        <v>1</v>
+      </c>
+      <c r="BK19">
+        <v>0</v>
+      </c>
+      <c r="BL19">
+        <v>0</v>
+      </c>
+      <c r="BM19">
+        <v>0</v>
+      </c>
+      <c r="BN19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>282</v>
       </c>
@@ -3691,8 +4546,50 @@
       <c r="AZ20">
         <v>0</v>
       </c>
+      <c r="BA20">
+        <v>1</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>1</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>0</v>
+      </c>
+      <c r="BJ20">
+        <v>0</v>
+      </c>
+      <c r="BK20">
+        <v>1</v>
+      </c>
+      <c r="BL20">
+        <v>0</v>
+      </c>
+      <c r="BM20">
+        <v>0</v>
+      </c>
+      <c r="BN20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>223</v>
       </c>
@@ -3847,10 +4744,52 @@
         <v>0</v>
       </c>
       <c r="AZ21">
+        <v>1</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>1</v>
+      </c>
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>0</v>
+      </c>
+      <c r="BH21">
+        <v>0</v>
+      </c>
+      <c r="BI21">
+        <v>0</v>
+      </c>
+      <c r="BJ21">
+        <v>0</v>
+      </c>
+      <c r="BK21">
+        <v>0</v>
+      </c>
+      <c r="BL21">
+        <v>1</v>
+      </c>
+      <c r="BM21">
+        <v>0</v>
+      </c>
+      <c r="BN21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>211</v>
       </c>
@@ -4007,8 +4946,50 @@
       <c r="AZ22">
         <v>0</v>
       </c>
+      <c r="BA22">
+        <v>1</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>1</v>
+      </c>
+      <c r="BG22">
+        <v>0</v>
+      </c>
+      <c r="BH22">
+        <v>0</v>
+      </c>
+      <c r="BI22">
+        <v>0</v>
+      </c>
+      <c r="BJ22">
+        <v>0</v>
+      </c>
+      <c r="BK22">
+        <v>1</v>
+      </c>
+      <c r="BL22">
+        <v>0</v>
+      </c>
+      <c r="BM22">
+        <v>0</v>
+      </c>
+      <c r="BN22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>210</v>
       </c>
@@ -4163,10 +5144,52 @@
         <v>0</v>
       </c>
       <c r="AZ23">
+        <v>1</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
+      <c r="BC23">
+        <v>1</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <v>0</v>
+      </c>
+      <c r="BG23">
+        <v>0</v>
+      </c>
+      <c r="BH23">
+        <v>0</v>
+      </c>
+      <c r="BI23">
+        <v>0</v>
+      </c>
+      <c r="BJ23">
+        <v>0</v>
+      </c>
+      <c r="BK23">
+        <v>0</v>
+      </c>
+      <c r="BL23">
+        <v>1</v>
+      </c>
+      <c r="BM23">
+        <v>0</v>
+      </c>
+      <c r="BN23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>320</v>
       </c>
@@ -4321,10 +5344,52 @@
         <v>0</v>
       </c>
       <c r="AZ24">
+        <v>1</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BC24">
+        <v>0</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>1</v>
+      </c>
+      <c r="BF24">
+        <v>0</v>
+      </c>
+      <c r="BG24">
+        <v>0</v>
+      </c>
+      <c r="BH24">
+        <v>0</v>
+      </c>
+      <c r="BI24">
+        <v>0</v>
+      </c>
+      <c r="BJ24">
+        <v>0</v>
+      </c>
+      <c r="BK24">
+        <v>1</v>
+      </c>
+      <c r="BL24">
+        <v>0</v>
+      </c>
+      <c r="BM24">
+        <v>0</v>
+      </c>
+      <c r="BN24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>222</v>
       </c>
@@ -4479,10 +5544,52 @@
         <v>0</v>
       </c>
       <c r="AZ25">
+        <v>1</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
+      </c>
+      <c r="BB25">
+        <v>0</v>
+      </c>
+      <c r="BC25">
+        <v>0</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <v>1</v>
+      </c>
+      <c r="BF25">
+        <v>0</v>
+      </c>
+      <c r="BG25">
+        <v>0</v>
+      </c>
+      <c r="BH25">
+        <v>0</v>
+      </c>
+      <c r="BI25">
+        <v>0</v>
+      </c>
+      <c r="BJ25">
+        <v>1</v>
+      </c>
+      <c r="BK25">
+        <v>0</v>
+      </c>
+      <c r="BL25">
+        <v>0</v>
+      </c>
+      <c r="BM25">
+        <v>0</v>
+      </c>
+      <c r="BN25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>233</v>
       </c>
@@ -4639,8 +5746,50 @@
       <c r="AZ26">
         <v>0</v>
       </c>
+      <c r="BA26">
+        <v>1</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BC26">
+        <v>0</v>
+      </c>
+      <c r="BD26">
+        <v>0</v>
+      </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
+      <c r="BF26">
+        <v>1</v>
+      </c>
+      <c r="BG26">
+        <v>0</v>
+      </c>
+      <c r="BH26">
+        <v>0</v>
+      </c>
+      <c r="BI26">
+        <v>0</v>
+      </c>
+      <c r="BJ26">
+        <v>1</v>
+      </c>
+      <c r="BK26">
+        <v>0</v>
+      </c>
+      <c r="BL26">
+        <v>0</v>
+      </c>
+      <c r="BM26">
+        <v>0</v>
+      </c>
+      <c r="BN26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>109</v>
       </c>
@@ -4795,10 +5944,52 @@
         <v>0</v>
       </c>
       <c r="AZ27">
+        <v>1</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27">
+        <v>0</v>
+      </c>
+      <c r="BD27">
+        <v>0</v>
+      </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
+      <c r="BF27">
+        <v>1</v>
+      </c>
+      <c r="BG27">
+        <v>0</v>
+      </c>
+      <c r="BH27">
+        <v>0</v>
+      </c>
+      <c r="BI27">
+        <v>0</v>
+      </c>
+      <c r="BJ27">
+        <v>0</v>
+      </c>
+      <c r="BK27">
+        <v>0</v>
+      </c>
+      <c r="BL27">
+        <v>0</v>
+      </c>
+      <c r="BM27">
+        <v>0</v>
+      </c>
+      <c r="BN27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4</v>
       </c>
@@ -4953,10 +6144,52 @@
         <v>1</v>
       </c>
       <c r="AZ28">
+        <v>1</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>0</v>
+      </c>
+      <c r="BD28">
+        <v>1</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BF28">
+        <v>0</v>
+      </c>
+      <c r="BG28">
+        <v>0</v>
+      </c>
+      <c r="BH28">
+        <v>0</v>
+      </c>
+      <c r="BI28">
+        <v>0</v>
+      </c>
+      <c r="BJ28">
+        <v>0</v>
+      </c>
+      <c r="BK28">
+        <v>0</v>
+      </c>
+      <c r="BL28">
+        <v>1</v>
+      </c>
+      <c r="BM28">
+        <v>0</v>
+      </c>
+      <c r="BN28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>284</v>
       </c>
@@ -5113,8 +6346,50 @@
       <c r="AZ29">
         <v>0</v>
       </c>
+      <c r="BA29">
+        <v>1</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29">
+        <v>1</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
+      <c r="BF29">
+        <v>0</v>
+      </c>
+      <c r="BG29">
+        <v>0</v>
+      </c>
+      <c r="BH29">
+        <v>0</v>
+      </c>
+      <c r="BI29">
+        <v>0</v>
+      </c>
+      <c r="BJ29">
+        <v>1</v>
+      </c>
+      <c r="BK29">
+        <v>0</v>
+      </c>
+      <c r="BL29">
+        <v>0</v>
+      </c>
+      <c r="BM29">
+        <v>0</v>
+      </c>
+      <c r="BN29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>117</v>
       </c>
@@ -5271,8 +6546,50 @@
       <c r="AZ30">
         <v>0</v>
       </c>
+      <c r="BA30">
+        <v>1</v>
+      </c>
+      <c r="BB30">
+        <v>0</v>
+      </c>
+      <c r="BC30">
+        <v>1</v>
+      </c>
+      <c r="BD30">
+        <v>0</v>
+      </c>
+      <c r="BE30">
+        <v>0</v>
+      </c>
+      <c r="BF30">
+        <v>0</v>
+      </c>
+      <c r="BG30">
+        <v>0</v>
+      </c>
+      <c r="BH30">
+        <v>0</v>
+      </c>
+      <c r="BI30">
+        <v>0</v>
+      </c>
+      <c r="BJ30">
+        <v>0</v>
+      </c>
+      <c r="BK30">
+        <v>1</v>
+      </c>
+      <c r="BL30">
+        <v>0</v>
+      </c>
+      <c r="BM30">
+        <v>0</v>
+      </c>
+      <c r="BN30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>57</v>
       </c>
@@ -5427,10 +6744,52 @@
         <v>0</v>
       </c>
       <c r="AZ31">
+        <v>1</v>
+      </c>
+      <c r="BA31">
+        <v>0</v>
+      </c>
+      <c r="BB31">
+        <v>1</v>
+      </c>
+      <c r="BC31">
+        <v>0</v>
+      </c>
+      <c r="BD31">
+        <v>0</v>
+      </c>
+      <c r="BE31">
+        <v>0</v>
+      </c>
+      <c r="BF31">
+        <v>0</v>
+      </c>
+      <c r="BG31">
+        <v>0</v>
+      </c>
+      <c r="BH31">
+        <v>0</v>
+      </c>
+      <c r="BI31">
+        <v>0</v>
+      </c>
+      <c r="BJ31">
+        <v>0</v>
+      </c>
+      <c r="BK31">
+        <v>0</v>
+      </c>
+      <c r="BL31">
+        <v>0</v>
+      </c>
+      <c r="BM31">
+        <v>0</v>
+      </c>
+      <c r="BN31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
@@ -5587,8 +6946,50 @@
       <c r="AZ32">
         <v>0</v>
       </c>
+      <c r="BA32">
+        <v>1</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BC32">
+        <v>0</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
+      <c r="BE32">
+        <v>1</v>
+      </c>
+      <c r="BF32">
+        <v>0</v>
+      </c>
+      <c r="BG32">
+        <v>0</v>
+      </c>
+      <c r="BH32">
+        <v>0</v>
+      </c>
+      <c r="BI32">
+        <v>0</v>
+      </c>
+      <c r="BJ32">
+        <v>0</v>
+      </c>
+      <c r="BK32">
+        <v>0</v>
+      </c>
+      <c r="BL32">
+        <v>0</v>
+      </c>
+      <c r="BM32">
+        <v>0</v>
+      </c>
+      <c r="BN32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>301</v>
       </c>
@@ -5745,8 +7146,50 @@
       <c r="AZ33">
         <v>0</v>
       </c>
+      <c r="BA33">
+        <v>1</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BC33">
+        <v>0</v>
+      </c>
+      <c r="BD33">
+        <v>0</v>
+      </c>
+      <c r="BE33">
+        <v>0</v>
+      </c>
+      <c r="BF33">
+        <v>1</v>
+      </c>
+      <c r="BG33">
+        <v>0</v>
+      </c>
+      <c r="BH33">
+        <v>0</v>
+      </c>
+      <c r="BI33">
+        <v>0</v>
+      </c>
+      <c r="BJ33">
+        <v>0</v>
+      </c>
+      <c r="BK33">
+        <v>1</v>
+      </c>
+      <c r="BL33">
+        <v>0</v>
+      </c>
+      <c r="BM33">
+        <v>0</v>
+      </c>
+      <c r="BN33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>215</v>
       </c>
@@ -5901,10 +7344,52 @@
         <v>0</v>
       </c>
       <c r="AZ34">
+        <v>1</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>0</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+      <c r="BE34">
+        <v>1</v>
+      </c>
+      <c r="BF34">
+        <v>0</v>
+      </c>
+      <c r="BG34">
+        <v>0</v>
+      </c>
+      <c r="BH34">
+        <v>0</v>
+      </c>
+      <c r="BI34">
+        <v>0</v>
+      </c>
+      <c r="BJ34">
+        <v>0</v>
+      </c>
+      <c r="BK34">
+        <v>0</v>
+      </c>
+      <c r="BL34">
+        <v>1</v>
+      </c>
+      <c r="BM34">
+        <v>0</v>
+      </c>
+      <c r="BN34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>206</v>
       </c>
@@ -6059,10 +7544,52 @@
         <v>1</v>
       </c>
       <c r="AZ35">
+        <v>1</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>0</v>
+      </c>
+      <c r="BD35">
+        <v>0</v>
+      </c>
+      <c r="BE35">
+        <v>1</v>
+      </c>
+      <c r="BF35">
+        <v>0</v>
+      </c>
+      <c r="BG35">
+        <v>0</v>
+      </c>
+      <c r="BH35">
+        <v>0</v>
+      </c>
+      <c r="BI35">
+        <v>0</v>
+      </c>
+      <c r="BJ35">
+        <v>1</v>
+      </c>
+      <c r="BK35">
+        <v>0</v>
+      </c>
+      <c r="BL35">
+        <v>0</v>
+      </c>
+      <c r="BM35">
+        <v>0</v>
+      </c>
+      <c r="BN35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>261</v>
       </c>
@@ -6217,10 +7744,52 @@
         <v>0</v>
       </c>
       <c r="AZ36">
+        <v>1</v>
+      </c>
+      <c r="BA36">
+        <v>0</v>
+      </c>
+      <c r="BB36">
+        <v>0</v>
+      </c>
+      <c r="BC36">
+        <v>0</v>
+      </c>
+      <c r="BD36">
+        <v>0</v>
+      </c>
+      <c r="BE36">
+        <v>1</v>
+      </c>
+      <c r="BF36">
+        <v>0</v>
+      </c>
+      <c r="BG36">
+        <v>0</v>
+      </c>
+      <c r="BH36">
+        <v>0</v>
+      </c>
+      <c r="BI36">
+        <v>0</v>
+      </c>
+      <c r="BJ36">
+        <v>0</v>
+      </c>
+      <c r="BK36">
+        <v>0</v>
+      </c>
+      <c r="BL36">
+        <v>1</v>
+      </c>
+      <c r="BM36">
+        <v>0</v>
+      </c>
+      <c r="BN36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>199</v>
       </c>
@@ -6375,10 +7944,52 @@
         <v>0</v>
       </c>
       <c r="AZ37">
+        <v>1</v>
+      </c>
+      <c r="BA37">
+        <v>0</v>
+      </c>
+      <c r="BB37">
+        <v>1</v>
+      </c>
+      <c r="BC37">
+        <v>0</v>
+      </c>
+      <c r="BD37">
+        <v>0</v>
+      </c>
+      <c r="BE37">
+        <v>0</v>
+      </c>
+      <c r="BF37">
+        <v>0</v>
+      </c>
+      <c r="BG37">
+        <v>0</v>
+      </c>
+      <c r="BH37">
+        <v>0</v>
+      </c>
+      <c r="BI37">
+        <v>0</v>
+      </c>
+      <c r="BJ37">
+        <v>0</v>
+      </c>
+      <c r="BK37">
+        <v>1</v>
+      </c>
+      <c r="BL37">
+        <v>0</v>
+      </c>
+      <c r="BM37">
+        <v>0</v>
+      </c>
+      <c r="BN37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>107</v>
       </c>
@@ -6533,10 +8144,52 @@
         <v>0</v>
       </c>
       <c r="AZ38">
+        <v>1</v>
+      </c>
+      <c r="BA38">
+        <v>0</v>
+      </c>
+      <c r="BB38">
+        <v>0</v>
+      </c>
+      <c r="BC38">
+        <v>0</v>
+      </c>
+      <c r="BD38">
+        <v>0</v>
+      </c>
+      <c r="BE38">
+        <v>1</v>
+      </c>
+      <c r="BF38">
+        <v>0</v>
+      </c>
+      <c r="BG38">
+        <v>0</v>
+      </c>
+      <c r="BH38">
+        <v>0</v>
+      </c>
+      <c r="BI38">
+        <v>0</v>
+      </c>
+      <c r="BJ38">
+        <v>0</v>
+      </c>
+      <c r="BK38">
+        <v>1</v>
+      </c>
+      <c r="BL38">
+        <v>0</v>
+      </c>
+      <c r="BM38">
+        <v>0</v>
+      </c>
+      <c r="BN38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>195</v>
       </c>
@@ -6693,8 +8346,50 @@
       <c r="AZ39">
         <v>0</v>
       </c>
+      <c r="BA39">
+        <v>1</v>
+      </c>
+      <c r="BB39">
+        <v>0</v>
+      </c>
+      <c r="BC39">
+        <v>1</v>
+      </c>
+      <c r="BD39">
+        <v>0</v>
+      </c>
+      <c r="BE39">
+        <v>0</v>
+      </c>
+      <c r="BF39">
+        <v>0</v>
+      </c>
+      <c r="BG39">
+        <v>0</v>
+      </c>
+      <c r="BH39">
+        <v>0</v>
+      </c>
+      <c r="BI39">
+        <v>0</v>
+      </c>
+      <c r="BJ39">
+        <v>0</v>
+      </c>
+      <c r="BK39">
+        <v>1</v>
+      </c>
+      <c r="BL39">
+        <v>0</v>
+      </c>
+      <c r="BM39">
+        <v>0</v>
+      </c>
+      <c r="BN39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>281</v>
       </c>
@@ -6849,10 +8544,52 @@
         <v>0</v>
       </c>
       <c r="AZ40">
+        <v>1</v>
+      </c>
+      <c r="BA40">
+        <v>0</v>
+      </c>
+      <c r="BB40">
+        <v>0</v>
+      </c>
+      <c r="BC40">
+        <v>1</v>
+      </c>
+      <c r="BD40">
+        <v>0</v>
+      </c>
+      <c r="BE40">
+        <v>0</v>
+      </c>
+      <c r="BF40">
+        <v>0</v>
+      </c>
+      <c r="BG40">
+        <v>0</v>
+      </c>
+      <c r="BH40">
+        <v>0</v>
+      </c>
+      <c r="BI40">
+        <v>0</v>
+      </c>
+      <c r="BJ40">
+        <v>0</v>
+      </c>
+      <c r="BK40">
+        <v>0</v>
+      </c>
+      <c r="BL40">
+        <v>0</v>
+      </c>
+      <c r="BM40">
+        <v>0</v>
+      </c>
+      <c r="BN40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>329</v>
       </c>
@@ -7009,8 +8746,50 @@
       <c r="AZ41">
         <v>0</v>
       </c>
+      <c r="BA41">
+        <v>1</v>
+      </c>
+      <c r="BB41">
+        <v>0</v>
+      </c>
+      <c r="BC41">
+        <v>1</v>
+      </c>
+      <c r="BD41">
+        <v>0</v>
+      </c>
+      <c r="BE41">
+        <v>0</v>
+      </c>
+      <c r="BF41">
+        <v>0</v>
+      </c>
+      <c r="BG41">
+        <v>0</v>
+      </c>
+      <c r="BH41">
+        <v>0</v>
+      </c>
+      <c r="BI41">
+        <v>0</v>
+      </c>
+      <c r="BJ41">
+        <v>0</v>
+      </c>
+      <c r="BK41">
+        <v>1</v>
+      </c>
+      <c r="BL41">
+        <v>0</v>
+      </c>
+      <c r="BM41">
+        <v>0</v>
+      </c>
+      <c r="BN41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>333</v>
       </c>
@@ -7167,8 +8946,50 @@
       <c r="AZ42">
         <v>0</v>
       </c>
+      <c r="BA42">
+        <v>1</v>
+      </c>
+      <c r="BB42">
+        <v>0</v>
+      </c>
+      <c r="BC42">
+        <v>0</v>
+      </c>
+      <c r="BD42">
+        <v>0</v>
+      </c>
+      <c r="BE42">
+        <v>0</v>
+      </c>
+      <c r="BF42">
+        <v>1</v>
+      </c>
+      <c r="BG42">
+        <v>0</v>
+      </c>
+      <c r="BH42">
+        <v>0</v>
+      </c>
+      <c r="BI42">
+        <v>1</v>
+      </c>
+      <c r="BJ42">
+        <v>0</v>
+      </c>
+      <c r="BK42">
+        <v>0</v>
+      </c>
+      <c r="BL42">
+        <v>0</v>
+      </c>
+      <c r="BM42">
+        <v>0</v>
+      </c>
+      <c r="BN42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>341</v>
       </c>
@@ -7325,8 +9146,50 @@
       <c r="AZ43">
         <v>0</v>
       </c>
+      <c r="BA43">
+        <v>1</v>
+      </c>
+      <c r="BB43">
+        <v>0</v>
+      </c>
+      <c r="BC43">
+        <v>1</v>
+      </c>
+      <c r="BD43">
+        <v>0</v>
+      </c>
+      <c r="BE43">
+        <v>0</v>
+      </c>
+      <c r="BF43">
+        <v>0</v>
+      </c>
+      <c r="BG43">
+        <v>0</v>
+      </c>
+      <c r="BH43">
+        <v>0</v>
+      </c>
+      <c r="BI43">
+        <v>0</v>
+      </c>
+      <c r="BJ43">
+        <v>1</v>
+      </c>
+      <c r="BK43">
+        <v>0</v>
+      </c>
+      <c r="BL43">
+        <v>0</v>
+      </c>
+      <c r="BM43">
+        <v>0</v>
+      </c>
+      <c r="BN43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>256</v>
       </c>
@@ -7483,8 +9346,50 @@
       <c r="AZ44">
         <v>0</v>
       </c>
+      <c r="BA44">
+        <v>1</v>
+      </c>
+      <c r="BB44">
+        <v>0</v>
+      </c>
+      <c r="BC44">
+        <v>1</v>
+      </c>
+      <c r="BD44">
+        <v>0</v>
+      </c>
+      <c r="BE44">
+        <v>0</v>
+      </c>
+      <c r="BF44">
+        <v>0</v>
+      </c>
+      <c r="BG44">
+        <v>0</v>
+      </c>
+      <c r="BH44">
+        <v>0</v>
+      </c>
+      <c r="BI44">
+        <v>0</v>
+      </c>
+      <c r="BJ44">
+        <v>1</v>
+      </c>
+      <c r="BK44">
+        <v>0</v>
+      </c>
+      <c r="BL44">
+        <v>0</v>
+      </c>
+      <c r="BM44">
+        <v>0</v>
+      </c>
+      <c r="BN44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>251</v>
       </c>
@@ -7641,8 +9546,50 @@
       <c r="AZ45">
         <v>0</v>
       </c>
+      <c r="BA45">
+        <v>1</v>
+      </c>
+      <c r="BB45">
+        <v>0</v>
+      </c>
+      <c r="BC45">
+        <v>1</v>
+      </c>
+      <c r="BD45">
+        <v>0</v>
+      </c>
+      <c r="BE45">
+        <v>0</v>
+      </c>
+      <c r="BF45">
+        <v>0</v>
+      </c>
+      <c r="BG45">
+        <v>0</v>
+      </c>
+      <c r="BH45">
+        <v>0</v>
+      </c>
+      <c r="BI45">
+        <v>0</v>
+      </c>
+      <c r="BJ45">
+        <v>0</v>
+      </c>
+      <c r="BK45">
+        <v>0</v>
+      </c>
+      <c r="BL45">
+        <v>1</v>
+      </c>
+      <c r="BM45">
+        <v>0</v>
+      </c>
+      <c r="BN45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>231</v>
       </c>
@@ -7799,8 +9746,50 @@
       <c r="AZ46">
         <v>0</v>
       </c>
+      <c r="BA46">
+        <v>1</v>
+      </c>
+      <c r="BB46">
+        <v>0</v>
+      </c>
+      <c r="BC46">
+        <v>1</v>
+      </c>
+      <c r="BD46">
+        <v>0</v>
+      </c>
+      <c r="BE46">
+        <v>0</v>
+      </c>
+      <c r="BF46">
+        <v>0</v>
+      </c>
+      <c r="BG46">
+        <v>0</v>
+      </c>
+      <c r="BH46">
+        <v>0</v>
+      </c>
+      <c r="BI46">
+        <v>0</v>
+      </c>
+      <c r="BJ46">
+        <v>0</v>
+      </c>
+      <c r="BK46">
+        <v>0</v>
+      </c>
+      <c r="BL46">
+        <v>1</v>
+      </c>
+      <c r="BM46">
+        <v>0</v>
+      </c>
+      <c r="BN46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>76</v>
       </c>
@@ -7957,8 +9946,50 @@
       <c r="AZ47">
         <v>0</v>
       </c>
+      <c r="BA47">
+        <v>1</v>
+      </c>
+      <c r="BB47">
+        <v>0</v>
+      </c>
+      <c r="BC47">
+        <v>1</v>
+      </c>
+      <c r="BD47">
+        <v>0</v>
+      </c>
+      <c r="BE47">
+        <v>0</v>
+      </c>
+      <c r="BF47">
+        <v>0</v>
+      </c>
+      <c r="BG47">
+        <v>0</v>
+      </c>
+      <c r="BH47">
+        <v>0</v>
+      </c>
+      <c r="BI47">
+        <v>0</v>
+      </c>
+      <c r="BJ47">
+        <v>0</v>
+      </c>
+      <c r="BK47">
+        <v>1</v>
+      </c>
+      <c r="BL47">
+        <v>0</v>
+      </c>
+      <c r="BM47">
+        <v>0</v>
+      </c>
+      <c r="BN47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>277</v>
       </c>
@@ -8113,10 +10144,52 @@
         <v>0</v>
       </c>
       <c r="AZ48">
+        <v>1</v>
+      </c>
+      <c r="BA48">
+        <v>0</v>
+      </c>
+      <c r="BB48">
+        <v>0</v>
+      </c>
+      <c r="BC48">
+        <v>1</v>
+      </c>
+      <c r="BD48">
+        <v>0</v>
+      </c>
+      <c r="BE48">
+        <v>0</v>
+      </c>
+      <c r="BF48">
+        <v>0</v>
+      </c>
+      <c r="BG48">
+        <v>0</v>
+      </c>
+      <c r="BH48">
+        <v>0</v>
+      </c>
+      <c r="BI48">
+        <v>0</v>
+      </c>
+      <c r="BJ48">
+        <v>0</v>
+      </c>
+      <c r="BK48">
+        <v>1</v>
+      </c>
+      <c r="BL48">
+        <v>0</v>
+      </c>
+      <c r="BM48">
+        <v>0</v>
+      </c>
+      <c r="BN48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>273</v>
       </c>
@@ -8273,8 +10346,50 @@
       <c r="AZ49">
         <v>0</v>
       </c>
+      <c r="BA49">
+        <v>1</v>
+      </c>
+      <c r="BB49">
+        <v>0</v>
+      </c>
+      <c r="BC49">
+        <v>0</v>
+      </c>
+      <c r="BD49">
+        <v>1</v>
+      </c>
+      <c r="BE49">
+        <v>0</v>
+      </c>
+      <c r="BF49">
+        <v>0</v>
+      </c>
+      <c r="BG49">
+        <v>0</v>
+      </c>
+      <c r="BH49">
+        <v>0</v>
+      </c>
+      <c r="BI49">
+        <v>1</v>
+      </c>
+      <c r="BJ49">
+        <v>0</v>
+      </c>
+      <c r="BK49">
+        <v>0</v>
+      </c>
+      <c r="BL49">
+        <v>0</v>
+      </c>
+      <c r="BM49">
+        <v>0</v>
+      </c>
+      <c r="BN49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>259</v>
       </c>
@@ -8431,8 +10546,50 @@
       <c r="AZ50">
         <v>0</v>
       </c>
+      <c r="BA50">
+        <v>1</v>
+      </c>
+      <c r="BB50">
+        <v>0</v>
+      </c>
+      <c r="BC50">
+        <v>1</v>
+      </c>
+      <c r="BD50">
+        <v>0</v>
+      </c>
+      <c r="BE50">
+        <v>0</v>
+      </c>
+      <c r="BF50">
+        <v>0</v>
+      </c>
+      <c r="BG50">
+        <v>0</v>
+      </c>
+      <c r="BH50">
+        <v>0</v>
+      </c>
+      <c r="BI50">
+        <v>0</v>
+      </c>
+      <c r="BJ50">
+        <v>1</v>
+      </c>
+      <c r="BK50">
+        <v>0</v>
+      </c>
+      <c r="BL50">
+        <v>0</v>
+      </c>
+      <c r="BM50">
+        <v>0</v>
+      </c>
+      <c r="BN50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>39</v>
       </c>
@@ -8589,8 +10746,50 @@
       <c r="AZ51">
         <v>0</v>
       </c>
+      <c r="BA51">
+        <v>1</v>
+      </c>
+      <c r="BB51">
+        <v>1</v>
+      </c>
+      <c r="BC51">
+        <v>0</v>
+      </c>
+      <c r="BD51">
+        <v>0</v>
+      </c>
+      <c r="BE51">
+        <v>0</v>
+      </c>
+      <c r="BF51">
+        <v>0</v>
+      </c>
+      <c r="BG51">
+        <v>0</v>
+      </c>
+      <c r="BH51">
+        <v>0</v>
+      </c>
+      <c r="BI51">
+        <v>0</v>
+      </c>
+      <c r="BJ51">
+        <v>0</v>
+      </c>
+      <c r="BK51">
+        <v>1</v>
+      </c>
+      <c r="BL51">
+        <v>0</v>
+      </c>
+      <c r="BM51">
+        <v>0</v>
+      </c>
+      <c r="BN51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>31</v>
       </c>
@@ -8747,8 +10946,50 @@
       <c r="AZ52">
         <v>0</v>
       </c>
+      <c r="BA52">
+        <v>1</v>
+      </c>
+      <c r="BB52">
+        <v>0</v>
+      </c>
+      <c r="BC52">
+        <v>0</v>
+      </c>
+      <c r="BD52">
+        <v>0</v>
+      </c>
+      <c r="BE52">
+        <v>1</v>
+      </c>
+      <c r="BF52">
+        <v>0</v>
+      </c>
+      <c r="BG52">
+        <v>0</v>
+      </c>
+      <c r="BH52">
+        <v>0</v>
+      </c>
+      <c r="BI52">
+        <v>0</v>
+      </c>
+      <c r="BJ52">
+        <v>0</v>
+      </c>
+      <c r="BK52">
+        <v>0</v>
+      </c>
+      <c r="BL52">
+        <v>1</v>
+      </c>
+      <c r="BM52">
+        <v>0</v>
+      </c>
+      <c r="BN52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>325</v>
       </c>
@@ -8905,8 +11146,50 @@
       <c r="AZ53">
         <v>0</v>
       </c>
+      <c r="BA53">
+        <v>1</v>
+      </c>
+      <c r="BB53">
+        <v>0</v>
+      </c>
+      <c r="BC53">
+        <v>1</v>
+      </c>
+      <c r="BD53">
+        <v>0</v>
+      </c>
+      <c r="BE53">
+        <v>0</v>
+      </c>
+      <c r="BF53">
+        <v>0</v>
+      </c>
+      <c r="BG53">
+        <v>0</v>
+      </c>
+      <c r="BH53">
+        <v>0</v>
+      </c>
+      <c r="BI53">
+        <v>0</v>
+      </c>
+      <c r="BJ53">
+        <v>0</v>
+      </c>
+      <c r="BK53">
+        <v>0</v>
+      </c>
+      <c r="BL53">
+        <v>0</v>
+      </c>
+      <c r="BM53">
+        <v>0</v>
+      </c>
+      <c r="BN53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>330</v>
       </c>
@@ -9063,8 +11346,50 @@
       <c r="AZ54">
         <v>0</v>
       </c>
+      <c r="BA54">
+        <v>1</v>
+      </c>
+      <c r="BB54">
+        <v>0</v>
+      </c>
+      <c r="BC54">
+        <v>1</v>
+      </c>
+      <c r="BD54">
+        <v>0</v>
+      </c>
+      <c r="BE54">
+        <v>0</v>
+      </c>
+      <c r="BF54">
+        <v>0</v>
+      </c>
+      <c r="BG54">
+        <v>0</v>
+      </c>
+      <c r="BH54">
+        <v>0</v>
+      </c>
+      <c r="BI54">
+        <v>0</v>
+      </c>
+      <c r="BJ54">
+        <v>0</v>
+      </c>
+      <c r="BK54">
+        <v>0</v>
+      </c>
+      <c r="BL54">
+        <v>0</v>
+      </c>
+      <c r="BM54">
+        <v>0</v>
+      </c>
+      <c r="BN54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>279</v>
       </c>
@@ -9221,8 +11546,50 @@
       <c r="AZ55">
         <v>0</v>
       </c>
+      <c r="BA55">
+        <v>1</v>
+      </c>
+      <c r="BB55">
+        <v>0</v>
+      </c>
+      <c r="BC55">
+        <v>1</v>
+      </c>
+      <c r="BD55">
+        <v>0</v>
+      </c>
+      <c r="BE55">
+        <v>0</v>
+      </c>
+      <c r="BF55">
+        <v>0</v>
+      </c>
+      <c r="BG55">
+        <v>0</v>
+      </c>
+      <c r="BH55">
+        <v>0</v>
+      </c>
+      <c r="BI55">
+        <v>0</v>
+      </c>
+      <c r="BJ55">
+        <v>1</v>
+      </c>
+      <c r="BK55">
+        <v>0</v>
+      </c>
+      <c r="BL55">
+        <v>0</v>
+      </c>
+      <c r="BM55">
+        <v>0</v>
+      </c>
+      <c r="BN55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>248</v>
       </c>
@@ -9379,8 +11746,50 @@
       <c r="AZ56">
         <v>0</v>
       </c>
+      <c r="BA56">
+        <v>1</v>
+      </c>
+      <c r="BB56">
+        <v>0</v>
+      </c>
+      <c r="BC56">
+        <v>1</v>
+      </c>
+      <c r="BD56">
+        <v>0</v>
+      </c>
+      <c r="BE56">
+        <v>0</v>
+      </c>
+      <c r="BF56">
+        <v>0</v>
+      </c>
+      <c r="BG56">
+        <v>0</v>
+      </c>
+      <c r="BH56">
+        <v>0</v>
+      </c>
+      <c r="BI56">
+        <v>0</v>
+      </c>
+      <c r="BJ56">
+        <v>0</v>
+      </c>
+      <c r="BK56">
+        <v>1</v>
+      </c>
+      <c r="BL56">
+        <v>0</v>
+      </c>
+      <c r="BM56">
+        <v>0</v>
+      </c>
+      <c r="BN56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>303</v>
       </c>
@@ -9537,8 +11946,50 @@
       <c r="AZ57">
         <v>0</v>
       </c>
+      <c r="BA57">
+        <v>1</v>
+      </c>
+      <c r="BB57">
+        <v>0</v>
+      </c>
+      <c r="BC57">
+        <v>1</v>
+      </c>
+      <c r="BD57">
+        <v>0</v>
+      </c>
+      <c r="BE57">
+        <v>0</v>
+      </c>
+      <c r="BF57">
+        <v>0</v>
+      </c>
+      <c r="BG57">
+        <v>0</v>
+      </c>
+      <c r="BH57">
+        <v>0</v>
+      </c>
+      <c r="BI57">
+        <v>0</v>
+      </c>
+      <c r="BJ57">
+        <v>0</v>
+      </c>
+      <c r="BK57">
+        <v>0</v>
+      </c>
+      <c r="BL57">
+        <v>0</v>
+      </c>
+      <c r="BM57">
+        <v>0</v>
+      </c>
+      <c r="BN57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>286</v>
       </c>
@@ -9693,10 +12144,52 @@
         <v>0</v>
       </c>
       <c r="AZ58">
+        <v>1</v>
+      </c>
+      <c r="BA58">
+        <v>0</v>
+      </c>
+      <c r="BB58">
+        <v>0</v>
+      </c>
+      <c r="BC58">
+        <v>1</v>
+      </c>
+      <c r="BD58">
+        <v>0</v>
+      </c>
+      <c r="BE58">
+        <v>0</v>
+      </c>
+      <c r="BF58">
+        <v>0</v>
+      </c>
+      <c r="BG58">
+        <v>0</v>
+      </c>
+      <c r="BH58">
+        <v>0</v>
+      </c>
+      <c r="BI58">
+        <v>0</v>
+      </c>
+      <c r="BJ58">
+        <v>1</v>
+      </c>
+      <c r="BK58">
+        <v>0</v>
+      </c>
+      <c r="BL58">
+        <v>0</v>
+      </c>
+      <c r="BM58">
+        <v>0</v>
+      </c>
+      <c r="BN58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>278</v>
       </c>
@@ -9853,8 +12346,50 @@
       <c r="AZ59">
         <v>0</v>
       </c>
+      <c r="BA59">
+        <v>1</v>
+      </c>
+      <c r="BB59">
+        <v>0</v>
+      </c>
+      <c r="BC59">
+        <v>1</v>
+      </c>
+      <c r="BD59">
+        <v>0</v>
+      </c>
+      <c r="BE59">
+        <v>0</v>
+      </c>
+      <c r="BF59">
+        <v>0</v>
+      </c>
+      <c r="BG59">
+        <v>0</v>
+      </c>
+      <c r="BH59">
+        <v>0</v>
+      </c>
+      <c r="BI59">
+        <v>0</v>
+      </c>
+      <c r="BJ59">
+        <v>0</v>
+      </c>
+      <c r="BK59">
+        <v>1</v>
+      </c>
+      <c r="BL59">
+        <v>0</v>
+      </c>
+      <c r="BM59">
+        <v>0</v>
+      </c>
+      <c r="BN59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>96</v>
       </c>
@@ -10011,8 +12546,50 @@
       <c r="AZ60">
         <v>0</v>
       </c>
+      <c r="BA60">
+        <v>1</v>
+      </c>
+      <c r="BB60">
+        <v>1</v>
+      </c>
+      <c r="BC60">
+        <v>0</v>
+      </c>
+      <c r="BD60">
+        <v>0</v>
+      </c>
+      <c r="BE60">
+        <v>0</v>
+      </c>
+      <c r="BF60">
+        <v>0</v>
+      </c>
+      <c r="BG60">
+        <v>0</v>
+      </c>
+      <c r="BH60">
+        <v>0</v>
+      </c>
+      <c r="BI60">
+        <v>0</v>
+      </c>
+      <c r="BJ60">
+        <v>0</v>
+      </c>
+      <c r="BK60">
+        <v>0</v>
+      </c>
+      <c r="BL60">
+        <v>1</v>
+      </c>
+      <c r="BM60">
+        <v>0</v>
+      </c>
+      <c r="BN60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>67</v>
       </c>
@@ -10167,10 +12744,52 @@
         <v>0</v>
       </c>
       <c r="AZ61">
+        <v>1</v>
+      </c>
+      <c r="BA61">
+        <v>0</v>
+      </c>
+      <c r="BB61">
+        <v>0</v>
+      </c>
+      <c r="BC61">
+        <v>1</v>
+      </c>
+      <c r="BD61">
+        <v>0</v>
+      </c>
+      <c r="BE61">
+        <v>0</v>
+      </c>
+      <c r="BF61">
+        <v>0</v>
+      </c>
+      <c r="BG61">
+        <v>0</v>
+      </c>
+      <c r="BH61">
+        <v>0</v>
+      </c>
+      <c r="BI61">
+        <v>0</v>
+      </c>
+      <c r="BJ61">
+        <v>0</v>
+      </c>
+      <c r="BK61">
+        <v>0</v>
+      </c>
+      <c r="BL61">
+        <v>1</v>
+      </c>
+      <c r="BM61">
+        <v>0</v>
+      </c>
+      <c r="BN61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>285</v>
       </c>
@@ -10325,10 +12944,52 @@
         <v>0</v>
       </c>
       <c r="AZ62">
+        <v>1</v>
+      </c>
+      <c r="BA62">
+        <v>0</v>
+      </c>
+      <c r="BB62">
+        <v>0</v>
+      </c>
+      <c r="BC62">
+        <v>1</v>
+      </c>
+      <c r="BD62">
+        <v>0</v>
+      </c>
+      <c r="BE62">
+        <v>0</v>
+      </c>
+      <c r="BF62">
+        <v>0</v>
+      </c>
+      <c r="BG62">
+        <v>0</v>
+      </c>
+      <c r="BH62">
+        <v>0</v>
+      </c>
+      <c r="BI62">
+        <v>0</v>
+      </c>
+      <c r="BJ62">
+        <v>0</v>
+      </c>
+      <c r="BK62">
+        <v>0</v>
+      </c>
+      <c r="BL62">
+        <v>0</v>
+      </c>
+      <c r="BM62">
+        <v>0</v>
+      </c>
+      <c r="BN62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>122</v>
       </c>
@@ -10483,10 +13144,52 @@
         <v>1</v>
       </c>
       <c r="AZ63">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BA63">
+        <v>0</v>
+      </c>
+      <c r="BB63">
+        <v>0</v>
+      </c>
+      <c r="BC63">
+        <v>1</v>
+      </c>
+      <c r="BD63">
+        <v>0</v>
+      </c>
+      <c r="BE63">
+        <v>0</v>
+      </c>
+      <c r="BF63">
+        <v>0</v>
+      </c>
+      <c r="BG63">
+        <v>0</v>
+      </c>
+      <c r="BH63">
+        <v>0</v>
+      </c>
+      <c r="BI63">
+        <v>0</v>
+      </c>
+      <c r="BJ63">
+        <v>0</v>
+      </c>
+      <c r="BK63">
+        <v>0</v>
+      </c>
+      <c r="BL63">
+        <v>0</v>
+      </c>
+      <c r="BM63">
+        <v>0</v>
+      </c>
+      <c r="BN63">
+        <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>275</v>
       </c>
@@ -10643,8 +13346,50 @@
       <c r="AZ64">
         <v>0</v>
       </c>
+      <c r="BA64">
+        <v>1</v>
+      </c>
+      <c r="BB64">
+        <v>0</v>
+      </c>
+      <c r="BC64">
+        <v>1</v>
+      </c>
+      <c r="BD64">
+        <v>0</v>
+      </c>
+      <c r="BE64">
+        <v>0</v>
+      </c>
+      <c r="BF64">
+        <v>0</v>
+      </c>
+      <c r="BG64">
+        <v>0</v>
+      </c>
+      <c r="BH64">
+        <v>0</v>
+      </c>
+      <c r="BI64">
+        <v>0</v>
+      </c>
+      <c r="BJ64">
+        <v>0</v>
+      </c>
+      <c r="BK64">
+        <v>0</v>
+      </c>
+      <c r="BL64">
+        <v>1</v>
+      </c>
+      <c r="BM64">
+        <v>0</v>
+      </c>
+      <c r="BN64">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>300</v>
       </c>
@@ -10799,10 +13544,52 @@
         <v>0</v>
       </c>
       <c r="AZ65">
+        <v>1</v>
+      </c>
+      <c r="BA65">
+        <v>0</v>
+      </c>
+      <c r="BB65">
+        <v>0</v>
+      </c>
+      <c r="BC65">
+        <v>0</v>
+      </c>
+      <c r="BD65">
+        <v>0</v>
+      </c>
+      <c r="BE65">
+        <v>0</v>
+      </c>
+      <c r="BF65">
+        <v>1</v>
+      </c>
+      <c r="BG65">
+        <v>0</v>
+      </c>
+      <c r="BH65">
+        <v>0</v>
+      </c>
+      <c r="BI65">
+        <v>0</v>
+      </c>
+      <c r="BJ65">
+        <v>1</v>
+      </c>
+      <c r="BK65">
+        <v>0</v>
+      </c>
+      <c r="BL65">
+        <v>0</v>
+      </c>
+      <c r="BM65">
+        <v>0</v>
+      </c>
+      <c r="BN65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>137</v>
       </c>
@@ -10959,8 +13746,50 @@
       <c r="AZ66">
         <v>0</v>
       </c>
+      <c r="BA66">
+        <v>1</v>
+      </c>
+      <c r="BB66">
+        <v>0</v>
+      </c>
+      <c r="BC66">
+        <v>1</v>
+      </c>
+      <c r="BD66">
+        <v>0</v>
+      </c>
+      <c r="BE66">
+        <v>0</v>
+      </c>
+      <c r="BF66">
+        <v>0</v>
+      </c>
+      <c r="BG66">
+        <v>0</v>
+      </c>
+      <c r="BH66">
+        <v>0</v>
+      </c>
+      <c r="BI66">
+        <v>0</v>
+      </c>
+      <c r="BJ66">
+        <v>0</v>
+      </c>
+      <c r="BK66">
+        <v>1</v>
+      </c>
+      <c r="BL66">
+        <v>0</v>
+      </c>
+      <c r="BM66">
+        <v>0</v>
+      </c>
+      <c r="BN66">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>302</v>
       </c>
@@ -11117,8 +13946,50 @@
       <c r="AZ67">
         <v>0</v>
       </c>
+      <c r="BA67">
+        <v>1</v>
+      </c>
+      <c r="BB67">
+        <v>0</v>
+      </c>
+      <c r="BC67">
+        <v>1</v>
+      </c>
+      <c r="BD67">
+        <v>0</v>
+      </c>
+      <c r="BE67">
+        <v>0</v>
+      </c>
+      <c r="BF67">
+        <v>0</v>
+      </c>
+      <c r="BG67">
+        <v>0</v>
+      </c>
+      <c r="BH67">
+        <v>0</v>
+      </c>
+      <c r="BI67">
+        <v>0</v>
+      </c>
+      <c r="BJ67">
+        <v>0</v>
+      </c>
+      <c r="BK67">
+        <v>0</v>
+      </c>
+      <c r="BL67">
+        <v>1</v>
+      </c>
+      <c r="BM67">
+        <v>0</v>
+      </c>
+      <c r="BN67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>155</v>
       </c>
@@ -11275,8 +14146,50 @@
       <c r="AZ68">
         <v>0</v>
       </c>
+      <c r="BA68">
+        <v>1</v>
+      </c>
+      <c r="BB68">
+        <v>0</v>
+      </c>
+      <c r="BC68">
+        <v>0</v>
+      </c>
+      <c r="BD68">
+        <v>0</v>
+      </c>
+      <c r="BE68">
+        <v>0</v>
+      </c>
+      <c r="BF68">
+        <v>1</v>
+      </c>
+      <c r="BG68">
+        <v>0</v>
+      </c>
+      <c r="BH68">
+        <v>0</v>
+      </c>
+      <c r="BI68">
+        <v>0</v>
+      </c>
+      <c r="BJ68">
+        <v>0</v>
+      </c>
+      <c r="BK68">
+        <v>1</v>
+      </c>
+      <c r="BL68">
+        <v>0</v>
+      </c>
+      <c r="BM68">
+        <v>0</v>
+      </c>
+      <c r="BN68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>236</v>
       </c>
@@ -11431,10 +14344,52 @@
         <v>0</v>
       </c>
       <c r="AZ69">
+        <v>1</v>
+      </c>
+      <c r="BA69">
+        <v>0</v>
+      </c>
+      <c r="BB69">
+        <v>0</v>
+      </c>
+      <c r="BC69">
+        <v>0</v>
+      </c>
+      <c r="BD69">
+        <v>0</v>
+      </c>
+      <c r="BE69">
+        <v>1</v>
+      </c>
+      <c r="BF69">
+        <v>0</v>
+      </c>
+      <c r="BG69">
+        <v>0</v>
+      </c>
+      <c r="BH69">
+        <v>0</v>
+      </c>
+      <c r="BI69">
+        <v>0</v>
+      </c>
+      <c r="BJ69">
+        <v>0</v>
+      </c>
+      <c r="BK69">
+        <v>0</v>
+      </c>
+      <c r="BL69">
+        <v>1</v>
+      </c>
+      <c r="BM69">
+        <v>0</v>
+      </c>
+      <c r="BN69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>79</v>
       </c>
@@ -11589,10 +14544,52 @@
         <v>1</v>
       </c>
       <c r="AZ70">
+        <v>1</v>
+      </c>
+      <c r="BA70">
+        <v>0</v>
+      </c>
+      <c r="BB70">
+        <v>0</v>
+      </c>
+      <c r="BC70">
+        <v>1</v>
+      </c>
+      <c r="BD70">
+        <v>0</v>
+      </c>
+      <c r="BE70">
+        <v>0</v>
+      </c>
+      <c r="BF70">
+        <v>0</v>
+      </c>
+      <c r="BG70">
+        <v>0</v>
+      </c>
+      <c r="BH70">
+        <v>0</v>
+      </c>
+      <c r="BI70">
+        <v>0</v>
+      </c>
+      <c r="BJ70">
+        <v>0</v>
+      </c>
+      <c r="BK70">
+        <v>0</v>
+      </c>
+      <c r="BL70">
+        <v>1</v>
+      </c>
+      <c r="BM70">
+        <v>0</v>
+      </c>
+      <c r="BN70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>106</v>
       </c>
@@ -11749,8 +14746,50 @@
       <c r="AZ71">
         <v>0</v>
       </c>
+      <c r="BA71">
+        <v>1</v>
+      </c>
+      <c r="BB71">
+        <v>0</v>
+      </c>
+      <c r="BC71">
+        <v>0</v>
+      </c>
+      <c r="BD71">
+        <v>0</v>
+      </c>
+      <c r="BE71">
+        <v>1</v>
+      </c>
+      <c r="BF71">
+        <v>0</v>
+      </c>
+      <c r="BG71">
+        <v>0</v>
+      </c>
+      <c r="BH71">
+        <v>0</v>
+      </c>
+      <c r="BI71">
+        <v>0</v>
+      </c>
+      <c r="BJ71">
+        <v>0</v>
+      </c>
+      <c r="BK71">
+        <v>0</v>
+      </c>
+      <c r="BL71">
+        <v>0</v>
+      </c>
+      <c r="BM71">
+        <v>0</v>
+      </c>
+      <c r="BN71">
+        <v>1</v>
+      </c>
     </row>
-    <row r="72" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>154</v>
       </c>
@@ -11905,10 +14944,52 @@
         <v>0</v>
       </c>
       <c r="AZ72">
+        <v>1</v>
+      </c>
+      <c r="BA72">
+        <v>0</v>
+      </c>
+      <c r="BB72">
+        <v>0</v>
+      </c>
+      <c r="BC72">
+        <v>0</v>
+      </c>
+      <c r="BD72">
+        <v>0</v>
+      </c>
+      <c r="BE72">
+        <v>1</v>
+      </c>
+      <c r="BF72">
+        <v>0</v>
+      </c>
+      <c r="BG72">
+        <v>0</v>
+      </c>
+      <c r="BH72">
+        <v>0</v>
+      </c>
+      <c r="BI72">
+        <v>0</v>
+      </c>
+      <c r="BJ72">
+        <v>0</v>
+      </c>
+      <c r="BK72">
+        <v>1</v>
+      </c>
+      <c r="BL72">
+        <v>0</v>
+      </c>
+      <c r="BM72">
+        <v>0</v>
+      </c>
+      <c r="BN72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>264</v>
       </c>
@@ -12065,8 +15146,50 @@
       <c r="AZ73">
         <v>0</v>
       </c>
+      <c r="BA73">
+        <v>1</v>
+      </c>
+      <c r="BB73">
+        <v>0</v>
+      </c>
+      <c r="BC73">
+        <v>0</v>
+      </c>
+      <c r="BD73">
+        <v>0</v>
+      </c>
+      <c r="BE73">
+        <v>1</v>
+      </c>
+      <c r="BF73">
+        <v>0</v>
+      </c>
+      <c r="BG73">
+        <v>0</v>
+      </c>
+      <c r="BH73">
+        <v>0</v>
+      </c>
+      <c r="BI73">
+        <v>0</v>
+      </c>
+      <c r="BJ73">
+        <v>0</v>
+      </c>
+      <c r="BK73">
+        <v>0</v>
+      </c>
+      <c r="BL73">
+        <v>1</v>
+      </c>
+      <c r="BM73">
+        <v>0</v>
+      </c>
+      <c r="BN73">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>294</v>
       </c>
@@ -12221,10 +15344,52 @@
         <v>1</v>
       </c>
       <c r="AZ74">
+        <v>1</v>
+      </c>
+      <c r="BA74">
+        <v>0</v>
+      </c>
+      <c r="BB74">
+        <v>0</v>
+      </c>
+      <c r="BC74">
+        <v>0</v>
+      </c>
+      <c r="BD74">
+        <v>0</v>
+      </c>
+      <c r="BE74">
+        <v>0</v>
+      </c>
+      <c r="BF74">
+        <v>1</v>
+      </c>
+      <c r="BG74">
+        <v>0</v>
+      </c>
+      <c r="BH74">
+        <v>0</v>
+      </c>
+      <c r="BI74">
+        <v>0</v>
+      </c>
+      <c r="BJ74">
+        <v>0</v>
+      </c>
+      <c r="BK74">
+        <v>0</v>
+      </c>
+      <c r="BL74">
+        <v>0</v>
+      </c>
+      <c r="BM74">
+        <v>0</v>
+      </c>
+      <c r="BN74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>216</v>
       </c>
@@ -12379,10 +15544,52 @@
         <v>1</v>
       </c>
       <c r="AZ75">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BA75">
+        <v>0</v>
+      </c>
+      <c r="BB75">
+        <v>0</v>
+      </c>
+      <c r="BC75">
+        <v>1</v>
+      </c>
+      <c r="BD75">
+        <v>0</v>
+      </c>
+      <c r="BE75">
+        <v>0</v>
+      </c>
+      <c r="BF75">
+        <v>0</v>
+      </c>
+      <c r="BG75">
+        <v>0</v>
+      </c>
+      <c r="BH75">
+        <v>0</v>
+      </c>
+      <c r="BI75">
+        <v>0</v>
+      </c>
+      <c r="BJ75">
+        <v>0</v>
+      </c>
+      <c r="BK75">
+        <v>0</v>
+      </c>
+      <c r="BL75">
+        <v>0</v>
+      </c>
+      <c r="BM75">
+        <v>0</v>
+      </c>
+      <c r="BN75">
+        <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>321</v>
       </c>
@@ -12537,10 +15744,52 @@
         <v>0</v>
       </c>
       <c r="AZ76">
+        <v>1</v>
+      </c>
+      <c r="BA76">
+        <v>0</v>
+      </c>
+      <c r="BB76">
+        <v>0</v>
+      </c>
+      <c r="BC76">
+        <v>0</v>
+      </c>
+      <c r="BD76">
+        <v>0</v>
+      </c>
+      <c r="BE76">
+        <v>1</v>
+      </c>
+      <c r="BF76">
+        <v>0</v>
+      </c>
+      <c r="BG76">
+        <v>0</v>
+      </c>
+      <c r="BH76">
+        <v>0</v>
+      </c>
+      <c r="BI76">
+        <v>0</v>
+      </c>
+      <c r="BJ76">
+        <v>0</v>
+      </c>
+      <c r="BK76">
+        <v>1</v>
+      </c>
+      <c r="BL76">
+        <v>0</v>
+      </c>
+      <c r="BM76">
+        <v>0</v>
+      </c>
+      <c r="BN76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>254</v>
       </c>
@@ -12695,10 +15944,52 @@
         <v>0</v>
       </c>
       <c r="AZ77">
+        <v>1</v>
+      </c>
+      <c r="BA77">
+        <v>0</v>
+      </c>
+      <c r="BB77">
+        <v>0</v>
+      </c>
+      <c r="BC77">
+        <v>1</v>
+      </c>
+      <c r="BD77">
+        <v>0</v>
+      </c>
+      <c r="BE77">
+        <v>0</v>
+      </c>
+      <c r="BF77">
+        <v>0</v>
+      </c>
+      <c r="BG77">
+        <v>0</v>
+      </c>
+      <c r="BH77">
+        <v>0</v>
+      </c>
+      <c r="BI77">
+        <v>0</v>
+      </c>
+      <c r="BJ77">
+        <v>0</v>
+      </c>
+      <c r="BK77">
+        <v>1</v>
+      </c>
+      <c r="BL77">
+        <v>0</v>
+      </c>
+      <c r="BM77">
+        <v>0</v>
+      </c>
+      <c r="BN77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>150</v>
       </c>
@@ -12855,8 +16146,50 @@
       <c r="AZ78">
         <v>0</v>
       </c>
+      <c r="BA78">
+        <v>1</v>
+      </c>
+      <c r="BB78">
+        <v>0</v>
+      </c>
+      <c r="BC78">
+        <v>0</v>
+      </c>
+      <c r="BD78">
+        <v>0</v>
+      </c>
+      <c r="BE78">
+        <v>0</v>
+      </c>
+      <c r="BF78">
+        <v>1</v>
+      </c>
+      <c r="BG78">
+        <v>0</v>
+      </c>
+      <c r="BH78">
+        <v>0</v>
+      </c>
+      <c r="BI78">
+        <v>0</v>
+      </c>
+      <c r="BJ78">
+        <v>0</v>
+      </c>
+      <c r="BK78">
+        <v>1</v>
+      </c>
+      <c r="BL78">
+        <v>0</v>
+      </c>
+      <c r="BM78">
+        <v>0</v>
+      </c>
+      <c r="BN78">
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>324</v>
       </c>
@@ -13013,8 +16346,50 @@
       <c r="AZ79">
         <v>0</v>
       </c>
+      <c r="BA79">
+        <v>1</v>
+      </c>
+      <c r="BB79">
+        <v>0</v>
+      </c>
+      <c r="BC79">
+        <v>1</v>
+      </c>
+      <c r="BD79">
+        <v>0</v>
+      </c>
+      <c r="BE79">
+        <v>0</v>
+      </c>
+      <c r="BF79">
+        <v>0</v>
+      </c>
+      <c r="BG79">
+        <v>0</v>
+      </c>
+      <c r="BH79">
+        <v>0</v>
+      </c>
+      <c r="BI79">
+        <v>0</v>
+      </c>
+      <c r="BJ79">
+        <v>0</v>
+      </c>
+      <c r="BK79">
+        <v>1</v>
+      </c>
+      <c r="BL79">
+        <v>0</v>
+      </c>
+      <c r="BM79">
+        <v>0</v>
+      </c>
+      <c r="BN79">
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>262</v>
       </c>
@@ -13169,10 +16544,52 @@
         <v>0</v>
       </c>
       <c r="AZ80">
+        <v>1</v>
+      </c>
+      <c r="BA80">
+        <v>0</v>
+      </c>
+      <c r="BB80">
+        <v>0</v>
+      </c>
+      <c r="BC80">
+        <v>1</v>
+      </c>
+      <c r="BD80">
+        <v>0</v>
+      </c>
+      <c r="BE80">
+        <v>0</v>
+      </c>
+      <c r="BF80">
+        <v>0</v>
+      </c>
+      <c r="BG80">
+        <v>0</v>
+      </c>
+      <c r="BH80">
+        <v>0</v>
+      </c>
+      <c r="BI80">
+        <v>0</v>
+      </c>
+      <c r="BJ80">
+        <v>0</v>
+      </c>
+      <c r="BK80">
+        <v>0</v>
+      </c>
+      <c r="BL80">
+        <v>1</v>
+      </c>
+      <c r="BM80">
+        <v>0</v>
+      </c>
+      <c r="BN80">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>287</v>
       </c>
@@ -13329,8 +16746,50 @@
       <c r="AZ81">
         <v>0</v>
       </c>
+      <c r="BA81">
+        <v>1</v>
+      </c>
+      <c r="BB81">
+        <v>0</v>
+      </c>
+      <c r="BC81">
+        <v>1</v>
+      </c>
+      <c r="BD81">
+        <v>0</v>
+      </c>
+      <c r="BE81">
+        <v>0</v>
+      </c>
+      <c r="BF81">
+        <v>0</v>
+      </c>
+      <c r="BG81">
+        <v>0</v>
+      </c>
+      <c r="BH81">
+        <v>0</v>
+      </c>
+      <c r="BI81">
+        <v>0</v>
+      </c>
+      <c r="BJ81">
+        <v>1</v>
+      </c>
+      <c r="BK81">
+        <v>0</v>
+      </c>
+      <c r="BL81">
+        <v>0</v>
+      </c>
+      <c r="BM81">
+        <v>0</v>
+      </c>
+      <c r="BN81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>276</v>
       </c>
@@ -13485,10 +16944,52 @@
         <v>0</v>
       </c>
       <c r="AZ82">
+        <v>1</v>
+      </c>
+      <c r="BA82">
+        <v>0</v>
+      </c>
+      <c r="BB82">
+        <v>0</v>
+      </c>
+      <c r="BC82">
+        <v>0</v>
+      </c>
+      <c r="BD82">
+        <v>0</v>
+      </c>
+      <c r="BE82">
+        <v>1</v>
+      </c>
+      <c r="BF82">
+        <v>0</v>
+      </c>
+      <c r="BG82">
+        <v>0</v>
+      </c>
+      <c r="BH82">
+        <v>0</v>
+      </c>
+      <c r="BI82">
+        <v>0</v>
+      </c>
+      <c r="BJ82">
+        <v>0</v>
+      </c>
+      <c r="BK82">
+        <v>0</v>
+      </c>
+      <c r="BL82">
+        <v>1</v>
+      </c>
+      <c r="BM82">
+        <v>0</v>
+      </c>
+      <c r="BN82">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>335</v>
       </c>
@@ -13643,10 +17144,52 @@
         <v>0</v>
       </c>
       <c r="AZ83">
+        <v>1</v>
+      </c>
+      <c r="BA83">
+        <v>0</v>
+      </c>
+      <c r="BB83">
+        <v>0</v>
+      </c>
+      <c r="BC83">
+        <v>1</v>
+      </c>
+      <c r="BD83">
+        <v>0</v>
+      </c>
+      <c r="BE83">
+        <v>0</v>
+      </c>
+      <c r="BF83">
+        <v>0</v>
+      </c>
+      <c r="BG83">
+        <v>0</v>
+      </c>
+      <c r="BH83">
+        <v>0</v>
+      </c>
+      <c r="BI83">
+        <v>0</v>
+      </c>
+      <c r="BJ83">
+        <v>0</v>
+      </c>
+      <c r="BK83">
+        <v>1</v>
+      </c>
+      <c r="BL83">
+        <v>0</v>
+      </c>
+      <c r="BM83">
+        <v>0</v>
+      </c>
+      <c r="BN83">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>112</v>
       </c>
@@ -13801,10 +17344,52 @@
         <v>0</v>
       </c>
       <c r="AZ84">
+        <v>1</v>
+      </c>
+      <c r="BA84">
+        <v>0</v>
+      </c>
+      <c r="BB84">
+        <v>0</v>
+      </c>
+      <c r="BC84">
+        <v>1</v>
+      </c>
+      <c r="BD84">
+        <v>0</v>
+      </c>
+      <c r="BE84">
+        <v>0</v>
+      </c>
+      <c r="BF84">
+        <v>0</v>
+      </c>
+      <c r="BG84">
+        <v>0</v>
+      </c>
+      <c r="BH84">
+        <v>0</v>
+      </c>
+      <c r="BI84">
+        <v>0</v>
+      </c>
+      <c r="BJ84">
+        <v>0</v>
+      </c>
+      <c r="BK84">
+        <v>0</v>
+      </c>
+      <c r="BL84">
+        <v>1</v>
+      </c>
+      <c r="BM84">
+        <v>0</v>
+      </c>
+      <c r="BN84">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>21</v>
       </c>
@@ -13959,10 +17544,52 @@
         <v>0</v>
       </c>
       <c r="AZ85">
+        <v>1</v>
+      </c>
+      <c r="BA85">
+        <v>0</v>
+      </c>
+      <c r="BB85">
+        <v>0</v>
+      </c>
+      <c r="BC85">
+        <v>0</v>
+      </c>
+      <c r="BD85">
+        <v>1</v>
+      </c>
+      <c r="BE85">
+        <v>0</v>
+      </c>
+      <c r="BF85">
+        <v>0</v>
+      </c>
+      <c r="BG85">
+        <v>0</v>
+      </c>
+      <c r="BH85">
+        <v>0</v>
+      </c>
+      <c r="BI85">
+        <v>0</v>
+      </c>
+      <c r="BJ85">
+        <v>0</v>
+      </c>
+      <c r="BK85">
+        <v>0</v>
+      </c>
+      <c r="BL85">
+        <v>1</v>
+      </c>
+      <c r="BM85">
+        <v>0</v>
+      </c>
+      <c r="BN85">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
@@ -14117,10 +17744,52 @@
         <v>0</v>
       </c>
       <c r="AZ86">
+        <v>1</v>
+      </c>
+      <c r="BA86">
+        <v>0</v>
+      </c>
+      <c r="BB86">
+        <v>0</v>
+      </c>
+      <c r="BC86">
+        <v>0</v>
+      </c>
+      <c r="BD86">
+        <v>0</v>
+      </c>
+      <c r="BE86">
+        <v>0</v>
+      </c>
+      <c r="BF86">
+        <v>0</v>
+      </c>
+      <c r="BG86">
+        <v>1</v>
+      </c>
+      <c r="BH86">
+        <v>0</v>
+      </c>
+      <c r="BI86">
+        <v>0</v>
+      </c>
+      <c r="BJ86">
+        <v>0</v>
+      </c>
+      <c r="BK86">
+        <v>0</v>
+      </c>
+      <c r="BL86">
+        <v>0</v>
+      </c>
+      <c r="BM86">
+        <v>0</v>
+      </c>
+      <c r="BN86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>214</v>
       </c>
@@ -14275,10 +17944,52 @@
         <v>0</v>
       </c>
       <c r="AZ87">
+        <v>1</v>
+      </c>
+      <c r="BA87">
+        <v>0</v>
+      </c>
+      <c r="BB87">
+        <v>0</v>
+      </c>
+      <c r="BC87">
+        <v>0</v>
+      </c>
+      <c r="BD87">
+        <v>0</v>
+      </c>
+      <c r="BE87">
+        <v>1</v>
+      </c>
+      <c r="BF87">
+        <v>0</v>
+      </c>
+      <c r="BG87">
+        <v>0</v>
+      </c>
+      <c r="BH87">
+        <v>0</v>
+      </c>
+      <c r="BI87">
+        <v>0</v>
+      </c>
+      <c r="BJ87">
+        <v>0</v>
+      </c>
+      <c r="BK87">
+        <v>0</v>
+      </c>
+      <c r="BL87">
+        <v>1</v>
+      </c>
+      <c r="BM87">
+        <v>0</v>
+      </c>
+      <c r="BN87">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>197</v>
       </c>
@@ -14433,6 +18144,2248 @@
         <v>0</v>
       </c>
       <c r="AZ88">
+        <v>0</v>
+      </c>
+      <c r="BA88">
+        <v>1</v>
+      </c>
+      <c r="BB88">
+        <v>0</v>
+      </c>
+      <c r="BC88">
+        <v>1</v>
+      </c>
+      <c r="BD88">
+        <v>0</v>
+      </c>
+      <c r="BE88">
+        <v>0</v>
+      </c>
+      <c r="BF88">
+        <v>0</v>
+      </c>
+      <c r="BG88">
+        <v>0</v>
+      </c>
+      <c r="BH88">
+        <v>0</v>
+      </c>
+      <c r="BI88">
+        <v>0</v>
+      </c>
+      <c r="BJ88">
+        <v>0</v>
+      </c>
+      <c r="BK88">
+        <v>1</v>
+      </c>
+      <c r="BL88">
+        <v>0</v>
+      </c>
+      <c r="BM88">
+        <v>0</v>
+      </c>
+      <c r="BN88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>323</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>1</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Y89">
+        <v>0</v>
+      </c>
+      <c r="Z89">
+        <v>1</v>
+      </c>
+      <c r="AA89">
+        <v>0</v>
+      </c>
+      <c r="AB89">
+        <v>0</v>
+      </c>
+      <c r="AC89">
+        <v>0</v>
+      </c>
+      <c r="AD89">
+        <v>1</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
+      </c>
+      <c r="AF89">
+        <v>0</v>
+      </c>
+      <c r="AG89">
+        <v>0</v>
+      </c>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
+      </c>
+      <c r="AJ89">
+        <v>1</v>
+      </c>
+      <c r="AK89">
+        <v>0</v>
+      </c>
+      <c r="AL89">
+        <v>0</v>
+      </c>
+      <c r="AM89">
+        <v>1</v>
+      </c>
+      <c r="AN89">
+        <v>0</v>
+      </c>
+      <c r="AO89">
+        <v>0</v>
+      </c>
+      <c r="AP89">
+        <v>0</v>
+      </c>
+      <c r="AQ89">
+        <v>0</v>
+      </c>
+      <c r="AR89">
+        <v>0</v>
+      </c>
+      <c r="AS89">
+        <v>1</v>
+      </c>
+      <c r="AT89">
+        <v>0</v>
+      </c>
+      <c r="AU89">
+        <v>1</v>
+      </c>
+      <c r="AV89">
+        <v>0</v>
+      </c>
+      <c r="AW89">
+        <v>0</v>
+      </c>
+      <c r="AX89">
+        <v>0</v>
+      </c>
+      <c r="AY89">
+        <v>0</v>
+      </c>
+      <c r="AZ89">
+        <v>1</v>
+      </c>
+      <c r="BA89">
+        <v>0</v>
+      </c>
+      <c r="BB89">
+        <v>0</v>
+      </c>
+      <c r="BC89">
+        <v>1</v>
+      </c>
+      <c r="BD89">
+        <v>0</v>
+      </c>
+      <c r="BE89">
+        <v>0</v>
+      </c>
+      <c r="BF89">
+        <v>0</v>
+      </c>
+      <c r="BG89">
+        <v>0</v>
+      </c>
+      <c r="BH89">
+        <v>0</v>
+      </c>
+      <c r="BI89">
+        <v>0</v>
+      </c>
+      <c r="BJ89">
+        <v>0</v>
+      </c>
+      <c r="BK89">
+        <v>0</v>
+      </c>
+      <c r="BL89">
+        <v>0</v>
+      </c>
+      <c r="BM89">
+        <v>0</v>
+      </c>
+      <c r="BN89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>253</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>1</v>
+      </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="X90">
+        <v>1</v>
+      </c>
+      <c r="Y90">
+        <v>0</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+      <c r="AA90">
+        <v>0</v>
+      </c>
+      <c r="AB90">
+        <v>0</v>
+      </c>
+      <c r="AC90">
+        <v>1</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
+      </c>
+      <c r="AF90">
+        <v>0</v>
+      </c>
+      <c r="AG90">
+        <v>0</v>
+      </c>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>1</v>
+      </c>
+      <c r="AJ90">
+        <v>0</v>
+      </c>
+      <c r="AK90">
+        <v>0</v>
+      </c>
+      <c r="AL90">
+        <v>1</v>
+      </c>
+      <c r="AM90">
+        <v>0</v>
+      </c>
+      <c r="AN90">
+        <v>0</v>
+      </c>
+      <c r="AO90">
+        <v>0</v>
+      </c>
+      <c r="AP90">
+        <v>0</v>
+      </c>
+      <c r="AQ90">
+        <v>0</v>
+      </c>
+      <c r="AR90">
+        <v>0</v>
+      </c>
+      <c r="AS90">
+        <v>1</v>
+      </c>
+      <c r="AT90">
+        <v>0</v>
+      </c>
+      <c r="AU90">
+        <v>0</v>
+      </c>
+      <c r="AV90">
+        <v>0</v>
+      </c>
+      <c r="AW90">
+        <v>1</v>
+      </c>
+      <c r="AX90">
+        <v>0</v>
+      </c>
+      <c r="AY90">
+        <v>0</v>
+      </c>
+      <c r="AZ90">
+        <v>0</v>
+      </c>
+      <c r="BA90">
+        <v>1</v>
+      </c>
+      <c r="BB90">
+        <v>0</v>
+      </c>
+      <c r="BC90">
+        <v>0</v>
+      </c>
+      <c r="BD90">
+        <v>0</v>
+      </c>
+      <c r="BE90">
+        <v>0</v>
+      </c>
+      <c r="BF90">
+        <v>1</v>
+      </c>
+      <c r="BG90">
+        <v>0</v>
+      </c>
+      <c r="BH90">
+        <v>0</v>
+      </c>
+      <c r="BI90">
+        <v>0</v>
+      </c>
+      <c r="BJ90">
+        <v>0</v>
+      </c>
+      <c r="BK90">
+        <v>1</v>
+      </c>
+      <c r="BL90">
+        <v>0</v>
+      </c>
+      <c r="BM90">
+        <v>0</v>
+      </c>
+      <c r="BN90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>85</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>1</v>
+      </c>
+      <c r="V91">
+        <v>1</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="X91">
+        <v>0</v>
+      </c>
+      <c r="Y91">
+        <v>0</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+      <c r="AA91">
+        <v>0</v>
+      </c>
+      <c r="AB91">
+        <v>1</v>
+      </c>
+      <c r="AC91">
+        <v>0</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
+      </c>
+      <c r="AF91">
+        <v>0</v>
+      </c>
+      <c r="AG91">
+        <v>0</v>
+      </c>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
+      </c>
+      <c r="AJ91">
+        <v>1</v>
+      </c>
+      <c r="AK91">
+        <v>0</v>
+      </c>
+      <c r="AL91">
+        <v>0</v>
+      </c>
+      <c r="AM91">
+        <v>0</v>
+      </c>
+      <c r="AN91">
+        <v>0</v>
+      </c>
+      <c r="AO91">
+        <v>1</v>
+      </c>
+      <c r="AP91">
+        <v>0</v>
+      </c>
+      <c r="AQ91">
+        <v>0</v>
+      </c>
+      <c r="AR91">
+        <v>0</v>
+      </c>
+      <c r="AS91">
+        <v>1</v>
+      </c>
+      <c r="AT91">
+        <v>0</v>
+      </c>
+      <c r="AU91">
+        <v>0</v>
+      </c>
+      <c r="AV91">
+        <v>1</v>
+      </c>
+      <c r="AW91">
+        <v>0</v>
+      </c>
+      <c r="AX91">
+        <v>0</v>
+      </c>
+      <c r="AY91">
+        <v>0</v>
+      </c>
+      <c r="AZ91">
+        <v>0</v>
+      </c>
+      <c r="BA91">
+        <v>1</v>
+      </c>
+      <c r="BB91">
+        <v>0</v>
+      </c>
+      <c r="BC91">
+        <v>0</v>
+      </c>
+      <c r="BD91">
+        <v>0</v>
+      </c>
+      <c r="BE91">
+        <v>0</v>
+      </c>
+      <c r="BF91">
+        <v>1</v>
+      </c>
+      <c r="BG91">
+        <v>0</v>
+      </c>
+      <c r="BH91">
+        <v>0</v>
+      </c>
+      <c r="BI91">
+        <v>0</v>
+      </c>
+      <c r="BJ91">
+        <v>0</v>
+      </c>
+      <c r="BK91">
+        <v>1</v>
+      </c>
+      <c r="BL91">
+        <v>0</v>
+      </c>
+      <c r="BM91">
+        <v>0</v>
+      </c>
+      <c r="BN91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>153</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <v>1</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <v>1</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="X92">
+        <v>0</v>
+      </c>
+      <c r="Y92">
+        <v>0</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+      <c r="AA92">
+        <v>0</v>
+      </c>
+      <c r="AB92">
+        <v>1</v>
+      </c>
+      <c r="AC92">
+        <v>0</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
+      </c>
+      <c r="AF92">
+        <v>0</v>
+      </c>
+      <c r="AG92">
+        <v>1</v>
+      </c>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
+      </c>
+      <c r="AJ92">
+        <v>0</v>
+      </c>
+      <c r="AK92">
+        <v>1</v>
+      </c>
+      <c r="AL92">
+        <v>0</v>
+      </c>
+      <c r="AM92">
+        <v>0</v>
+      </c>
+      <c r="AN92">
+        <v>0</v>
+      </c>
+      <c r="AO92">
+        <v>0</v>
+      </c>
+      <c r="AP92">
+        <v>0</v>
+      </c>
+      <c r="AQ92">
+        <v>1</v>
+      </c>
+      <c r="AR92">
+        <v>0</v>
+      </c>
+      <c r="AS92">
+        <v>0</v>
+      </c>
+      <c r="AT92">
+        <v>0</v>
+      </c>
+      <c r="AU92">
+        <v>1</v>
+      </c>
+      <c r="AV92">
+        <v>0</v>
+      </c>
+      <c r="AW92">
+        <v>0</v>
+      </c>
+      <c r="AX92">
+        <v>0</v>
+      </c>
+      <c r="AY92">
+        <v>0</v>
+      </c>
+      <c r="AZ92">
+        <v>0</v>
+      </c>
+      <c r="BA92">
+        <v>1</v>
+      </c>
+      <c r="BB92">
+        <v>0</v>
+      </c>
+      <c r="BC92">
+        <v>0</v>
+      </c>
+      <c r="BD92">
+        <v>1</v>
+      </c>
+      <c r="BE92">
+        <v>0</v>
+      </c>
+      <c r="BF92">
+        <v>0</v>
+      </c>
+      <c r="BG92">
+        <v>0</v>
+      </c>
+      <c r="BH92">
+        <v>0</v>
+      </c>
+      <c r="BI92">
+        <v>0</v>
+      </c>
+      <c r="BJ92">
+        <v>0</v>
+      </c>
+      <c r="BK92">
+        <v>0</v>
+      </c>
+      <c r="BL92">
+        <v>1</v>
+      </c>
+      <c r="BM92">
+        <v>0</v>
+      </c>
+      <c r="BN92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>139</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>1</v>
+      </c>
+      <c r="U93">
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <v>1</v>
+      </c>
+      <c r="W93">
+        <v>0</v>
+      </c>
+      <c r="X93">
+        <v>0</v>
+      </c>
+      <c r="Y93">
+        <v>0</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+      <c r="AA93">
+        <v>0</v>
+      </c>
+      <c r="AB93">
+        <v>0</v>
+      </c>
+      <c r="AC93">
+        <v>0</v>
+      </c>
+      <c r="AD93">
+        <v>1</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
+      </c>
+      <c r="AF93">
+        <v>0</v>
+      </c>
+      <c r="AG93">
+        <v>0</v>
+      </c>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
+      </c>
+      <c r="AJ93">
+        <v>1</v>
+      </c>
+      <c r="AK93">
+        <v>0</v>
+      </c>
+      <c r="AL93">
+        <v>0</v>
+      </c>
+      <c r="AM93">
+        <v>0</v>
+      </c>
+      <c r="AN93">
+        <v>1</v>
+      </c>
+      <c r="AO93">
+        <v>0</v>
+      </c>
+      <c r="AP93">
+        <v>0</v>
+      </c>
+      <c r="AQ93">
+        <v>1</v>
+      </c>
+      <c r="AR93">
+        <v>0</v>
+      </c>
+      <c r="AS93">
+        <v>0</v>
+      </c>
+      <c r="AT93">
+        <v>0</v>
+      </c>
+      <c r="AU93">
+        <v>0</v>
+      </c>
+      <c r="AV93">
+        <v>0</v>
+      </c>
+      <c r="AW93">
+        <v>0</v>
+      </c>
+      <c r="AX93">
+        <v>1</v>
+      </c>
+      <c r="AY93">
+        <v>0</v>
+      </c>
+      <c r="AZ93">
+        <v>0</v>
+      </c>
+      <c r="BA93">
+        <v>1</v>
+      </c>
+      <c r="BB93">
+        <v>0</v>
+      </c>
+      <c r="BC93">
+        <v>1</v>
+      </c>
+      <c r="BD93">
+        <v>0</v>
+      </c>
+      <c r="BE93">
+        <v>0</v>
+      </c>
+      <c r="BF93">
+        <v>0</v>
+      </c>
+      <c r="BG93">
+        <v>0</v>
+      </c>
+      <c r="BH93">
+        <v>0</v>
+      </c>
+      <c r="BI93">
+        <v>0</v>
+      </c>
+      <c r="BJ93">
+        <v>1</v>
+      </c>
+      <c r="BK93">
+        <v>0</v>
+      </c>
+      <c r="BL93">
+        <v>0</v>
+      </c>
+      <c r="BM93">
+        <v>0</v>
+      </c>
+      <c r="BN93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>246</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>1</v>
+      </c>
+      <c r="U94">
+        <v>0</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
+      <c r="W94">
+        <v>1</v>
+      </c>
+      <c r="X94">
+        <v>0</v>
+      </c>
+      <c r="Y94">
+        <v>0</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94">
+        <v>0</v>
+      </c>
+      <c r="AB94">
+        <v>1</v>
+      </c>
+      <c r="AC94">
+        <v>0</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
+      </c>
+      <c r="AF94">
+        <v>0</v>
+      </c>
+      <c r="AG94">
+        <v>0</v>
+      </c>
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>1</v>
+      </c>
+      <c r="AJ94">
+        <v>0</v>
+      </c>
+      <c r="AK94">
+        <v>0</v>
+      </c>
+      <c r="AL94">
+        <v>0</v>
+      </c>
+      <c r="AM94">
+        <v>0</v>
+      </c>
+      <c r="AN94">
+        <v>1</v>
+      </c>
+      <c r="AO94">
+        <v>0</v>
+      </c>
+      <c r="AP94">
+        <v>0</v>
+      </c>
+      <c r="AQ94">
+        <v>1</v>
+      </c>
+      <c r="AR94">
+        <v>0</v>
+      </c>
+      <c r="AS94">
+        <v>0</v>
+      </c>
+      <c r="AT94">
+        <v>0</v>
+      </c>
+      <c r="AU94">
+        <v>0</v>
+      </c>
+      <c r="AV94">
+        <v>0</v>
+      </c>
+      <c r="AW94">
+        <v>1</v>
+      </c>
+      <c r="AX94">
+        <v>0</v>
+      </c>
+      <c r="AY94">
+        <v>0</v>
+      </c>
+      <c r="AZ94">
+        <v>1</v>
+      </c>
+      <c r="BA94">
+        <v>0</v>
+      </c>
+      <c r="BB94">
+        <v>0</v>
+      </c>
+      <c r="BC94">
+        <v>0</v>
+      </c>
+      <c r="BD94">
+        <v>0</v>
+      </c>
+      <c r="BE94">
+        <v>0</v>
+      </c>
+      <c r="BF94">
+        <v>1</v>
+      </c>
+      <c r="BG94">
+        <v>0</v>
+      </c>
+      <c r="BH94">
+        <v>0</v>
+      </c>
+      <c r="BI94">
+        <v>0</v>
+      </c>
+      <c r="BJ94">
+        <v>1</v>
+      </c>
+      <c r="BK94">
+        <v>0</v>
+      </c>
+      <c r="BL94">
+        <v>0</v>
+      </c>
+      <c r="BM94">
+        <v>0</v>
+      </c>
+      <c r="BN94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>156</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>1</v>
+      </c>
+      <c r="U95">
+        <v>0</v>
+      </c>
+      <c r="V95">
+        <v>1</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="X95">
+        <v>0</v>
+      </c>
+      <c r="Y95">
+        <v>0</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95">
+        <v>0</v>
+      </c>
+      <c r="AB95">
+        <v>0</v>
+      </c>
+      <c r="AC95">
+        <v>0</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+      <c r="AE95">
+        <v>1</v>
+      </c>
+      <c r="AF95">
+        <v>0</v>
+      </c>
+      <c r="AG95">
+        <v>0</v>
+      </c>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
+      </c>
+      <c r="AJ95">
+        <v>1</v>
+      </c>
+      <c r="AK95">
+        <v>1</v>
+      </c>
+      <c r="AL95">
+        <v>0</v>
+      </c>
+      <c r="AM95">
+        <v>0</v>
+      </c>
+      <c r="AN95">
+        <v>0</v>
+      </c>
+      <c r="AO95">
+        <v>0</v>
+      </c>
+      <c r="AP95">
+        <v>0</v>
+      </c>
+      <c r="AQ95">
+        <v>1</v>
+      </c>
+      <c r="AR95">
+        <v>0</v>
+      </c>
+      <c r="AS95">
+        <v>0</v>
+      </c>
+      <c r="AT95">
+        <v>0</v>
+      </c>
+      <c r="AU95">
+        <v>0</v>
+      </c>
+      <c r="AV95">
+        <v>1</v>
+      </c>
+      <c r="AW95">
+        <v>0</v>
+      </c>
+      <c r="AX95">
+        <v>0</v>
+      </c>
+      <c r="AY95">
+        <v>0</v>
+      </c>
+      <c r="AZ95">
+        <v>0</v>
+      </c>
+      <c r="BA95">
+        <v>1</v>
+      </c>
+      <c r="BB95">
+        <v>0</v>
+      </c>
+      <c r="BC95">
+        <v>0</v>
+      </c>
+      <c r="BD95">
+        <v>0</v>
+      </c>
+      <c r="BE95">
+        <v>0</v>
+      </c>
+      <c r="BF95">
+        <v>1</v>
+      </c>
+      <c r="BG95">
+        <v>0</v>
+      </c>
+      <c r="BH95">
+        <v>0</v>
+      </c>
+      <c r="BI95">
+        <v>0</v>
+      </c>
+      <c r="BJ95">
+        <v>0</v>
+      </c>
+      <c r="BK95">
+        <v>1</v>
+      </c>
+      <c r="BL95">
+        <v>0</v>
+      </c>
+      <c r="BM95">
+        <v>0</v>
+      </c>
+      <c r="BN95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>237</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <v>1</v>
+      </c>
+      <c r="U96">
+        <v>0</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>1</v>
+      </c>
+      <c r="X96">
+        <v>0</v>
+      </c>
+      <c r="Y96">
+        <v>0</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+      <c r="AA96">
+        <v>0</v>
+      </c>
+      <c r="AB96">
+        <v>0</v>
+      </c>
+      <c r="AC96">
+        <v>0</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>1</v>
+      </c>
+      <c r="AF96">
+        <v>0</v>
+      </c>
+      <c r="AG96">
+        <v>0</v>
+      </c>
+      <c r="AH96">
+        <v>1</v>
+      </c>
+      <c r="AI96">
+        <v>0</v>
+      </c>
+      <c r="AJ96">
+        <v>0</v>
+      </c>
+      <c r="AK96">
+        <v>0</v>
+      </c>
+      <c r="AL96">
+        <v>0</v>
+      </c>
+      <c r="AM96">
+        <v>0</v>
+      </c>
+      <c r="AN96">
+        <v>0</v>
+      </c>
+      <c r="AO96">
+        <v>1</v>
+      </c>
+      <c r="AP96">
+        <v>0</v>
+      </c>
+      <c r="AQ96">
+        <v>0</v>
+      </c>
+      <c r="AR96">
+        <v>0</v>
+      </c>
+      <c r="AS96">
+        <v>1</v>
+      </c>
+      <c r="AT96">
+        <v>0</v>
+      </c>
+      <c r="AU96">
+        <v>0</v>
+      </c>
+      <c r="AV96">
+        <v>0</v>
+      </c>
+      <c r="AW96">
+        <v>0</v>
+      </c>
+      <c r="AX96">
+        <v>1</v>
+      </c>
+      <c r="AY96">
+        <v>0</v>
+      </c>
+      <c r="AZ96">
+        <v>1</v>
+      </c>
+      <c r="BA96">
+        <v>0</v>
+      </c>
+      <c r="BB96">
+        <v>0</v>
+      </c>
+      <c r="BC96">
+        <v>1</v>
+      </c>
+      <c r="BD96">
+        <v>0</v>
+      </c>
+      <c r="BE96">
+        <v>0</v>
+      </c>
+      <c r="BF96">
+        <v>0</v>
+      </c>
+      <c r="BG96">
+        <v>0</v>
+      </c>
+      <c r="BH96">
+        <v>0</v>
+      </c>
+      <c r="BI96">
+        <v>0</v>
+      </c>
+      <c r="BJ96">
+        <v>0</v>
+      </c>
+      <c r="BK96">
+        <v>0</v>
+      </c>
+      <c r="BL96">
+        <v>0</v>
+      </c>
+      <c r="BM96">
+        <v>0</v>
+      </c>
+      <c r="BN96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>274</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <v>1</v>
+      </c>
+      <c r="U97">
+        <v>0</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>0</v>
+      </c>
+      <c r="X97">
+        <v>1</v>
+      </c>
+      <c r="Y97">
+        <v>0</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+      <c r="AA97">
+        <v>0</v>
+      </c>
+      <c r="AB97">
+        <v>0</v>
+      </c>
+      <c r="AC97">
+        <v>1</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>0</v>
+      </c>
+      <c r="AF97">
+        <v>0</v>
+      </c>
+      <c r="AG97">
+        <v>0</v>
+      </c>
+      <c r="AH97">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <v>0</v>
+      </c>
+      <c r="AJ97">
+        <v>1</v>
+      </c>
+      <c r="AK97">
+        <v>0</v>
+      </c>
+      <c r="AL97">
+        <v>0</v>
+      </c>
+      <c r="AM97">
+        <v>1</v>
+      </c>
+      <c r="AN97">
+        <v>0</v>
+      </c>
+      <c r="AO97">
+        <v>0</v>
+      </c>
+      <c r="AP97">
+        <v>0</v>
+      </c>
+      <c r="AQ97">
+        <v>0</v>
+      </c>
+      <c r="AR97">
+        <v>0</v>
+      </c>
+      <c r="AS97">
+        <v>1</v>
+      </c>
+      <c r="AT97">
+        <v>0</v>
+      </c>
+      <c r="AU97">
+        <v>1</v>
+      </c>
+      <c r="AV97">
+        <v>0</v>
+      </c>
+      <c r="AW97">
+        <v>0</v>
+      </c>
+      <c r="AX97">
+        <v>0</v>
+      </c>
+      <c r="AY97">
+        <v>0</v>
+      </c>
+      <c r="AZ97">
+        <v>1</v>
+      </c>
+      <c r="BA97">
+        <v>0</v>
+      </c>
+      <c r="BB97">
+        <v>0</v>
+      </c>
+      <c r="BC97">
+        <v>1</v>
+      </c>
+      <c r="BD97">
+        <v>0</v>
+      </c>
+      <c r="BE97">
+        <v>0</v>
+      </c>
+      <c r="BF97">
+        <v>0</v>
+      </c>
+      <c r="BG97">
+        <v>0</v>
+      </c>
+      <c r="BH97">
+        <v>0</v>
+      </c>
+      <c r="BI97">
+        <v>0</v>
+      </c>
+      <c r="BJ97">
+        <v>0</v>
+      </c>
+      <c r="BK97">
+        <v>0</v>
+      </c>
+      <c r="BL97">
+        <v>1</v>
+      </c>
+      <c r="BM97">
+        <v>0</v>
+      </c>
+      <c r="BN97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>308</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <v>1</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>0</v>
+      </c>
+      <c r="X98">
+        <v>0</v>
+      </c>
+      <c r="Y98">
+        <v>1</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+      <c r="AA98">
+        <v>0</v>
+      </c>
+      <c r="AB98">
+        <v>0</v>
+      </c>
+      <c r="AC98">
+        <v>0</v>
+      </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
+      <c r="AE98">
+        <v>1</v>
+      </c>
+      <c r="AF98">
+        <v>0</v>
+      </c>
+      <c r="AG98">
+        <v>0</v>
+      </c>
+      <c r="AH98">
+        <v>1</v>
+      </c>
+      <c r="AI98">
+        <v>0</v>
+      </c>
+      <c r="AJ98">
+        <v>0</v>
+      </c>
+      <c r="AK98">
+        <v>0</v>
+      </c>
+      <c r="AL98">
+        <v>0</v>
+      </c>
+      <c r="AM98">
+        <v>0</v>
+      </c>
+      <c r="AN98">
+        <v>1</v>
+      </c>
+      <c r="AO98">
+        <v>0</v>
+      </c>
+      <c r="AP98">
+        <v>0</v>
+      </c>
+      <c r="AQ98">
+        <v>1</v>
+      </c>
+      <c r="AR98">
+        <v>0</v>
+      </c>
+      <c r="AS98">
+        <v>0</v>
+      </c>
+      <c r="AT98">
+        <v>0</v>
+      </c>
+      <c r="AU98">
+        <v>0</v>
+      </c>
+      <c r="AV98">
+        <v>0</v>
+      </c>
+      <c r="AW98">
+        <v>1</v>
+      </c>
+      <c r="AX98">
+        <v>0</v>
+      </c>
+      <c r="AY98">
+        <v>0</v>
+      </c>
+      <c r="AZ98">
+        <v>0</v>
+      </c>
+      <c r="BA98">
+        <v>1</v>
+      </c>
+      <c r="BB98">
+        <v>1</v>
+      </c>
+      <c r="BC98">
+        <v>0</v>
+      </c>
+      <c r="BD98">
+        <v>0</v>
+      </c>
+      <c r="BE98">
+        <v>0</v>
+      </c>
+      <c r="BF98">
+        <v>0</v>
+      </c>
+      <c r="BG98">
+        <v>0</v>
+      </c>
+      <c r="BH98">
+        <v>0</v>
+      </c>
+      <c r="BI98">
+        <v>0</v>
+      </c>
+      <c r="BJ98">
+        <v>0</v>
+      </c>
+      <c r="BK98">
+        <v>0</v>
+      </c>
+      <c r="BL98">
+        <v>1</v>
+      </c>
+      <c r="BM98">
+        <v>0</v>
+      </c>
+      <c r="BN98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>200</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>1</v>
+      </c>
+      <c r="U99">
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
+      <c r="X99">
+        <v>0</v>
+      </c>
+      <c r="Y99">
+        <v>0</v>
+      </c>
+      <c r="Z99">
+        <v>1</v>
+      </c>
+      <c r="AA99">
+        <v>0</v>
+      </c>
+      <c r="AB99">
+        <v>0</v>
+      </c>
+      <c r="AC99">
+        <v>0</v>
+      </c>
+      <c r="AD99">
+        <v>0</v>
+      </c>
+      <c r="AE99">
+        <v>1</v>
+      </c>
+      <c r="AF99">
+        <v>0</v>
+      </c>
+      <c r="AG99">
+        <v>0</v>
+      </c>
+      <c r="AH99">
+        <v>0</v>
+      </c>
+      <c r="AI99">
+        <v>1</v>
+      </c>
+      <c r="AJ99">
+        <v>0</v>
+      </c>
+      <c r="AK99">
+        <v>0</v>
+      </c>
+      <c r="AL99">
+        <v>1</v>
+      </c>
+      <c r="AM99">
+        <v>0</v>
+      </c>
+      <c r="AN99">
+        <v>0</v>
+      </c>
+      <c r="AO99">
+        <v>0</v>
+      </c>
+      <c r="AP99">
+        <v>0</v>
+      </c>
+      <c r="AQ99">
+        <v>1</v>
+      </c>
+      <c r="AR99">
+        <v>0</v>
+      </c>
+      <c r="AS99">
+        <v>0</v>
+      </c>
+      <c r="AT99">
+        <v>0</v>
+      </c>
+      <c r="AU99">
+        <v>0</v>
+      </c>
+      <c r="AV99">
+        <v>1</v>
+      </c>
+      <c r="AW99">
+        <v>0</v>
+      </c>
+      <c r="AX99">
+        <v>0</v>
+      </c>
+      <c r="AY99">
+        <v>0</v>
+      </c>
+      <c r="AZ99">
+        <v>0</v>
+      </c>
+      <c r="BA99">
+        <v>1</v>
+      </c>
+      <c r="BB99">
+        <v>0</v>
+      </c>
+      <c r="BC99">
+        <v>1</v>
+      </c>
+      <c r="BD99">
+        <v>0</v>
+      </c>
+      <c r="BE99">
+        <v>0</v>
+      </c>
+      <c r="BF99">
+        <v>0</v>
+      </c>
+      <c r="BG99">
+        <v>0</v>
+      </c>
+      <c r="BH99">
+        <v>0</v>
+      </c>
+      <c r="BI99">
+        <v>0</v>
+      </c>
+      <c r="BJ99">
+        <v>0</v>
+      </c>
+      <c r="BK99">
+        <v>0</v>
+      </c>
+      <c r="BL99">
+        <v>1</v>
+      </c>
+      <c r="BM99">
+        <v>0</v>
+      </c>
+      <c r="BN99">
         <v>0</v>
       </c>
     </row>
